--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27921"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27923"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FEBB3A5-AB4D-4FAE-A393-8E81E387DB14}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA4A222-7625-4B3D-97CE-1359065FC790}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
   <x:dimension ref="A1:H7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D6" sqref="D6"/>
+      <x:selection activeCell="E11" sqref="E11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.45"/>
@@ -908,7 +908,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="5">
-        <x:v>45481</x:v>
+        <x:v>45498</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
         <x:v>10</x:v>
@@ -1024,10 +1024,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>9</x:v>
@@ -1042,10 +1042,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
@@ -1299,8 +1299,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:I6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G11" sqref="G11"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D4" sqref="D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.45"/>
@@ -1407,7 +1407,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="12">
-        <x:v>45496</x:v>
+        <x:v>45498</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
         <x:v>10</x:v>
@@ -1490,8 +1490,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:H6"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D4" sqref="D4"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D11" sqref="D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.45"/>
@@ -1589,7 +1589,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D4" s="12">
-        <x:v>45496</x:v>
+        <x:v>45498</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
         <x:v>10</x:v>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27923"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27921"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA4A222-7625-4B3D-97CE-1359065FC790}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B515D7-47DA-4E72-839B-FF9859E4AAA2}"/>
   <x:bookViews>
     <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -287,22 +287,16 @@
     <x:t>DOJ_ImageName</x:t>
   </x:si>
   <x:si>
+    <x:t>DOW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NA</x:t>
+  </x:si>
+  <x:si>
     <x:t>DOB</x:t>
   </x:si>
   <x:si>
-    <x:t>NA</x:t>
-  </x:si>
-  <x:si>
     <x:t>DOJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOW</x:t>
   </x:si>
   <x:si>
     <x:t>EmpYearsOfExperience</x:t>
@@ -833,7 +827,7 @@
   <x:dimension ref="A1:H7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E11" sqref="E11"/>
+      <x:selection activeCell="D13" sqref="D13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.45"/>
@@ -1024,13 +1018,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
         <x:v>79</x:v>
@@ -1042,18 +1036,18 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>9</x:v>
@@ -1062,30 +1056,30 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>80</x:v>
@@ -1094,10 +1088,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -1111,7 +1105,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
         <x:v>6</x:v>
@@ -1137,7 +1131,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>80</x:v>
@@ -1192,10 +1186,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -1237,7 +1231,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>30</x:v>
@@ -1254,7 +1248,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>30</x:v>
@@ -1271,7 +1265,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>30</x:v>
@@ -1491,7 +1485,7 @@
   <x:dimension ref="A1:H6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D11" sqref="D11"/>
+      <x:selection activeCell="E11" sqref="E11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.45"/>
@@ -1589,7 +1583,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D4" s="12">
-        <x:v>45498</x:v>
+        <x:v>45499</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
         <x:v>10</x:v>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0536DC-0828-4737-AF80-D7B8F300CBD4}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593EB0DB-7C0E-4FE3-A65B-B89F5D2DA6DF}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -72,6 +72,9 @@
     <x:t>testsk212@outlook.com</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">FAILED :   Dates are not matched </x:t>
+  </x:si>
+  <x:si>
     <x:t>Vikas</x:t>
   </x:si>
   <x:si>
@@ -81,7 +84,16 @@
     <x:t>Abhi</x:t>
   </x:si>
   <x:si>
+    <x:t>22/07/202456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAILED :  We found some business exception, Since we not process that record, exception details are : String '' was not recognized as a valid DateTime.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sharukha</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SUCCESS  </x:t>
   </x:si>
   <x:si>
     <x:t>EmpDOJ</x:t>
@@ -175,13 +187,13 @@
     <x:t>NA</x:t>
   </x:si>
   <x:si>
+    <x:t>DOBImageName_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOBImageName_C</x:t>
+  </x:si>
+  <x:si>
     <x:t>DOJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
   </x:si>
   <x:si>
     <x:t>DOW</x:t>
@@ -687,8 +699,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="F11" sqref="F11"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D12" sqref="D12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -698,7 +710,7 @@
     <x:col min="3" max="3" width="18.710938" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="27.285156" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="23.710938" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="29.855469" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="57.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="19.15" customHeight="1">
@@ -737,14 +749,16 @@
       <x:c r="E2" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F2" s="16" t="s"/>
+      <x:c r="F2" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="3" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
         <x:v>7</x:v>
@@ -755,14 +769,16 @@
       <x:c r="E3" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="s"/>
+      <x:c r="F3" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="3" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
@@ -773,43 +789,47 @@
       <x:c r="E4" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="s"/>
+      <x:c r="F4" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="3" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="9">
-        <x:v>45495</x:v>
+      <x:c r="D5" s="9" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F5" s="16" t="s"/>
+      <x:c r="F5" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="3" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s"/>
       <x:c r="D6" s="9">
         <x:v>45499</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F6" s="16" t="s"/>
+      <x:c r="F6" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:6"/>
   </x:sheetData>
@@ -829,7 +849,7 @@
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="F10" sqref="F10"/>
+      <x:selection activeCell="D4" sqref="D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -838,7 +858,7 @@
     <x:col min="2" max="3" width="18.570312" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="19.570312" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="29.710938" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="27.855469" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="82" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="27.6" customHeight="1">
@@ -852,7 +872,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="20" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1" s="20" t="s">
         <x:v>4</x:v>
@@ -866,10 +886,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D2" s="7">
         <x:v>43288</x:v>
@@ -883,10 +903,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D3" s="7">
         <x:v>42924</x:v>
@@ -900,13 +920,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="9">
-        <x:v>45499</x:v>
+        <x:v>45481</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
         <x:v>8</x:v>
@@ -917,10 +937,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="4">
         <x:v>45491</x:v>
@@ -934,7 +954,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
@@ -962,8 +982,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C9" sqref="C9"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="C11" sqref="C11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -973,7 +993,7 @@
     <x:col min="3" max="3" width="25.285156" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="26.855469" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="31.710938" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="27.425781" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="68.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="22.15" customHeight="1">
@@ -987,7 +1007,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="20" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E1" s="20" t="s">
         <x:v>4</x:v>
@@ -1001,10 +1021,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D2" s="7">
         <x:v>44384</x:v>
@@ -1018,10 +1038,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="7">
         <x:v>42926</x:v>
@@ -1035,13 +1055,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="9">
-        <x:v>45499</x:v>
+        <x:v>45474</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
         <x:v>8</x:v>
@@ -1052,7 +1072,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
@@ -1069,10 +1089,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="4">
         <x:v>45489</x:v>
@@ -1108,32 +1128,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" customFormat="1" ht="20.45" customHeight="1">
       <x:c r="A1" s="21" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
       <x:c r="A2" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
       <x:c r="A3" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
       <x:c r="A4" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
       <x:c r="A5" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
       <x:c r="A6" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1163,32 +1183,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="20.45" customHeight="1">
       <x:c r="A1" s="20" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
       <x:c r="A2" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
       <x:c r="A4" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
       <x:c r="A5" s="13" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
       <x:c r="A6" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1218,32 +1238,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="19.15" customHeight="1">
       <x:c r="A1" s="20" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
       <x:c r="A2" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
       <x:c r="A3" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
       <x:c r="A4" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
       <x:c r="A5" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
       <x:c r="A6" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1283,77 +1303,74 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -1361,13 +1378,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
         <x:v>6</x:v>
@@ -1376,7 +1393,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
         <x:v>108</x:v>
@@ -1387,25 +1404,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593EB0DB-7C0E-4FE3-A65B-B89F5D2DA6DF}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860A78F8-332F-4D69-840C-F7B074D03837}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -81,19 +81,13 @@
     <x:t>Sonu</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">SUCCESS  </x:t>
+  </x:si>
+  <x:si>
     <x:t>Abhi</x:t>
   </x:si>
   <x:si>
-    <x:t>22/07/202456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAILED :  We found some business exception, Since we not process that record, exception details are : String '' was not recognized as a valid DateTime.</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sharukha</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SUCCESS  </x:t>
   </x:si>
   <x:si>
     <x:t>EmpDOJ</x:t>
@@ -187,13 +181,13 @@
     <x:t>NA</x:t>
   </x:si>
   <x:si>
-    <x:t>DOBImageName_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOBImageName_C</x:t>
-  </x:si>
-  <x:si>
     <x:t>DOJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
   </x:si>
   <x:si>
     <x:t>DOW</x:t>
@@ -226,7 +220,6 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -247,7 +240,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="5">
     <x:border>
       <x:left/>
       <x:right/>
@@ -285,19 +278,6 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
@@ -328,7 +308,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -340,14 +320,14 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
@@ -373,10 +353,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -391,24 +368,30 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -699,8 +682,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D12" sqref="D12"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D4" sqref="D4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -708,28 +691,28 @@
     <x:col min="1" max="1" width="7.710938" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="19.425781" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.710938" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.285156" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="27.285156" style="17" customWidth="1"/>
     <x:col min="5" max="5" width="23.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="57.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="19.15" customHeight="1">
-      <x:c r="A1" s="17" t="s">
+      <x:c r="A1" s="18" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="17" t="s">
+      <x:c r="B1" s="18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="17" t="s">
+      <x:c r="C1" s="18" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="17" t="s">
+      <x:c r="D1" s="19" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="18" t="s">
+      <x:c r="E1" s="20" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="19" t="s">
+      <x:c r="F1" s="21" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -743,13 +726,13 @@
       <x:c r="C2" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D2" s="9">
-        <x:v>45492</x:v>
-      </x:c>
-      <x:c r="E2" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="16" t="s">
+      <x:c r="D2" s="16">
+        <x:v>34883</x:v>
+      </x:c>
+      <x:c r="E2" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="15" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -763,13 +746,13 @@
       <x:c r="C3" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="9">
-        <x:v>45498</x:v>
-      </x:c>
-      <x:c r="E3" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="16" t="s">
+      <x:c r="D3" s="16">
+        <x:v>31598</x:v>
+      </x:c>
+      <x:c r="E3" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="15" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -783,14 +766,14 @@
       <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="9">
-        <x:v>45492</x:v>
-      </x:c>
-      <x:c r="E4" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="16" t="s">
-        <x:v>9</x:v>
+      <x:c r="D4" s="16">
+        <x:v>45500</x:v>
+      </x:c>
+      <x:c r="E4" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="15" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -798,19 +781,19 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="16" t="s">
-        <x:v>14</x:v>
+      <x:c r="D5" s="16">
+        <x:v>32696</x:v>
+      </x:c>
+      <x:c r="E5" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="15" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -818,17 +801,19 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s"/>
-      <x:c r="D6" s="9">
-        <x:v>45499</x:v>
-      </x:c>
-      <x:c r="E6" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="16">
+        <x:v>33427</x:v>
+      </x:c>
+      <x:c r="E6" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="15" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6"/>
@@ -849,35 +834,35 @@
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D4" sqref="D4"/>
+      <x:selection activeCell="C12" sqref="C12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="12.855469" style="0" customWidth="1"/>
     <x:col min="2" max="3" width="18.570312" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="19.570312" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="19.570312" style="17" customWidth="1"/>
     <x:col min="5" max="5" width="29.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="82" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="27.6" customHeight="1">
-      <x:c r="A1" s="20" t="s">
+      <x:c r="A1" s="19" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="20" t="s">
+      <x:c r="B1" s="19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="20" t="s">
+      <x:c r="C1" s="19" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="20" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E1" s="20" t="s">
+      <x:c r="D1" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E1" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="19" t="s">
+      <x:c r="F1" s="21" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -886,16 +871,19 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D2" s="7">
-        <x:v>43288</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D2" s="16">
+        <x:v>34883</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -903,16 +891,19 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" s="7">
-        <x:v>42924</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="16">
+        <x:v>31598</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -925,11 +916,14 @@
       <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="9">
-        <x:v>45481</x:v>
+      <x:c r="D4" s="16">
+        <x:v>35251</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -937,16 +931,19 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="16">
+        <x:v>45500</x:v>
+      </x:c>
+      <x:c r="E5" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D5" s="4">
-        <x:v>45491</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -954,16 +951,19 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D6" s="4">
-        <x:v>46955</x:v>
+      <x:c r="D6" s="16">
+        <x:v>33427</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -982,8 +982,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C11" sqref="C11"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C14" sqref="C14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -991,28 +991,28 @@
     <x:col min="1" max="1" width="17.710938" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="18.570312" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.285156" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="26.855469" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="26.855469" style="17" customWidth="1"/>
     <x:col min="5" max="5" width="31.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="68.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A1" s="20" t="s">
+      <x:c r="A1" s="19" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="20" t="s">
+      <x:c r="B1" s="19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="20" t="s">
+      <x:c r="C1" s="19" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E1" s="20" t="s">
+      <x:c r="D1" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="19" t="s">
+      <x:c r="F1" s="21" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1021,16 +1021,19 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D2" s="7">
-        <x:v>44384</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D2" s="16">
+        <x:v>34883</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -1038,16 +1041,19 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D3" s="7">
-        <x:v>42926</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="16">
+        <x:v>31598</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1055,16 +1061,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D4" s="9">
-        <x:v>45474</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="16">
+        <x:v>45500</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -1072,16 +1081,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="4">
-        <x:v>43300</x:v>
+      <x:c r="D5" s="16">
+        <x:v>32696</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1089,16 +1101,19 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D6" s="4">
-        <x:v>45489</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D6" s="16">
+        <x:v>33427</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1123,37 +1138,37 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="106.710938" style="12" customWidth="1"/>
+    <x:col min="1" max="1" width="106.710938" style="11" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" customFormat="1" ht="20.45" customHeight="1">
-      <x:c r="A1" s="21" t="s">
+      <x:c r="A1" s="22" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
+      <x:c r="A2" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
+      <x:c r="A3" s="10" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
-      <x:c r="A2" s="11" t="s">
+    <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
+      <x:c r="A4" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
-      <x:c r="A3" s="11" t="s">
+    <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
+      <x:c r="A5" s="10" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
-      <x:c r="A4" s="11" t="s">
+    <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
+      <x:c r="A6" s="10" t="s">
         <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
-      <x:c r="A5" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A6" s="11" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1182,33 +1197,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="20.45" customHeight="1">
-      <x:c r="A1" s="20" t="s">
+      <x:c r="A1" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
+      <x:c r="A2" s="12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
+      <x:c r="A3" s="12" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A2" s="13" t="s">
+    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
+      <x:c r="A4" s="12" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
-      <x:c r="A3" s="13" t="s">
+    <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
+      <x:c r="A5" s="12" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
-      <x:c r="A4" s="13" t="s">
+    <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
+      <x:c r="A6" s="10" t="s">
         <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
-      <x:c r="A5" s="13" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A6" s="11" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1237,33 +1252,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="19.15" customHeight="1">
-      <x:c r="A1" s="20" t="s">
+      <x:c r="A1" s="19" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A2" s="13" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
+      <x:c r="A3" s="13" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A2" s="14" t="s">
+    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
+      <x:c r="A4" s="13" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A3" s="14" t="s">
+    <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A5" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
-      <x:c r="A4" s="14" t="s">
+    <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
+      <x:c r="A6" s="13" t="s">
         <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A5" s="14" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A6" s="14" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1300,36 +1315,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>45</x:v>
@@ -1341,7 +1359,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>47</x:v>
@@ -1349,28 +1367,28 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -1384,7 +1402,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
         <x:v>6</x:v>
@@ -1393,7 +1411,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
         <x:v>108</x:v>
@@ -1410,19 +1428,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860A78F8-332F-4D69-840C-F7B074D03837}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DC2701-F33F-4A5C-BACC-31FE43C305DC}"/>
   <x:bookViews>
     <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -81,7 +81,7 @@
     <x:t>Sonu</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">SUCCESS  </x:t>
+    <x:t>FAILED :  Transaction is already Added into Queue,Please Check</x:t>
   </x:si>
   <x:si>
     <x:t>Abhi</x:t>
@@ -173,27 +173,6 @@
   </x:si>
   <x:si>
     <x:t>A successful marriage is an edifice that must be rebuilt every day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOWImageName_D</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -683,7 +662,7 @@
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D4" sqref="D4"/>
+      <x:selection activeCell="D10" sqref="D10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -767,7 +746,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="16">
-        <x:v>45500</x:v>
+        <x:v>45501</x:v>
       </x:c>
       <x:c r="E4" s="9" t="s">
         <x:v>8</x:v>
@@ -817,6 +796,9 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6"/>
+    <x:row r="10" spans="1:6">
+      <x:c r="D10" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,7 +816,7 @@
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C12" sqref="C12"/>
+      <x:selection activeCell="D5" sqref="D5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -937,7 +919,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D5" s="16">
-        <x:v>45500</x:v>
+        <x:v>45501</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
         <x:v>8</x:v>
@@ -983,7 +965,7 @@
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C14" sqref="C14"/>
+      <x:selection activeCell="C9" sqref="C9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1067,7 +1049,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="16">
-        <x:v>45500</x:v>
+        <x:v>45501</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
         <x:v>8</x:v>
@@ -1087,13 +1069,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="16">
-        <x:v>32696</x:v>
+        <x:v>45501</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1103,8 +1085,8 @@
       <x:c r="B6" s="6" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>21</x:v>
+      <x:c r="C6" s="4" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="16">
         <x:v>33427</x:v>
@@ -1295,10 +1277,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H5"/>
+  <x:dimension ref="A4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C16" sqref="C16"/>
+      <x:selection activeCell="K11" sqref="K11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.45"/>
@@ -1313,136 +1295,7 @@
     <x:col min="8" max="8" width="17.710938" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="n">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="n">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A4" s="0" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="4" spans="1:11" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27923"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27924"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DC2701-F33F-4A5C-BACC-31FE43C305DC}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90EC6D2A-0311-4E11-8BFB-D30C2F0A28E9}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -85,6 +85,9 @@
   </x:si>
   <x:si>
     <x:t>Abhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">FAILED :  We found some business exception, Since we not process that record, exception details are :  EmpDepartment Field is empty </x:t>
   </x:si>
   <x:si>
     <x:t>Sharukha</x:t>
@@ -661,8 +664,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D10" sqref="D10"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C12" sqref="C12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -746,7 +749,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="16">
-        <x:v>45501</x:v>
+        <x:v>45502</x:v>
       </x:c>
       <x:c r="E4" s="9" t="s">
         <x:v>8</x:v>
@@ -762,17 +765,15 @@
       <x:c r="B5" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="C5" s="4" t="s"/>
       <x:c r="D5" s="16">
-        <x:v>32696</x:v>
+        <x:v>45502</x:v>
       </x:c>
       <x:c r="E5" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -780,7 +781,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
@@ -796,9 +797,6 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6"/>
-    <x:row r="10" spans="1:6">
-      <x:c r="D10" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -839,7 +837,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E1" s="19" t="s">
         <x:v>4</x:v>
@@ -853,10 +851,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="16">
         <x:v>34883</x:v>
@@ -873,10 +871,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="16">
         <x:v>31598</x:v>
@@ -916,7 +914,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="16">
         <x:v>45501</x:v>
@@ -933,7 +931,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
@@ -964,8 +962,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C9" sqref="C9"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D13" sqref="D13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -989,7 +987,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1" s="19" t="s">
         <x:v>4</x:v>
@@ -1003,10 +1001,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="16">
         <x:v>34883</x:v>
@@ -1023,10 +1021,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="16">
         <x:v>31598</x:v>
@@ -1043,10 +1041,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="16">
         <x:v>45501</x:v>
@@ -1063,7 +1061,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
@@ -1083,7 +1081,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
@@ -1097,6 +1095,9 @@
       <x:c r="F6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="D13" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1125,32 +1126,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" customFormat="1" ht="20.45" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
       <x:c r="A2" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
       <x:c r="A3" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
       <x:c r="A4" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
       <x:c r="A5" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
       <x:c r="A6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1180,32 +1181,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="20.45" customHeight="1">
       <x:c r="A1" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
       <x:c r="A6" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1235,32 +1236,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="19.15" customHeight="1">
       <x:c r="A1" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
       <x:c r="A2" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
       <x:c r="A4" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
       <x:c r="A5" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
       <x:c r="A6" s="13" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27924"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27929"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90EC6D2A-0311-4E11-8BFB-D30C2F0A28E9}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E7E09E-F740-4993-A437-24E4A220E79D}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -69,7 +69,7 @@
     <x:t>IT-RPA</x:t>
   </x:si>
   <x:si>
-    <x:t>testsk212@outlook.com</x:t>
+    <x:t>sakadav@bugraptors.com</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">FAILED :   Dates are not matched </x:t>
@@ -78,16 +78,13 @@
     <x:t>Vikas</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">SUCCESS  </x:t>
+  </x:si>
+  <x:si>
     <x:t>Sonu</x:t>
   </x:si>
   <x:si>
-    <x:t>FAILED :  Transaction is already Added into Queue,Please Check</x:t>
-  </x:si>
-  <x:si>
     <x:t>Abhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FAILED :  We found some business exception, Since we not process that record, exception details are :  EmpDepartment Field is empty </x:t>
   </x:si>
   <x:si>
     <x:t>Sharukha</x:t>
@@ -176,6 +173,27 @@
   </x:si>
   <x:si>
     <x:t>A successful marriage is an edifice that must be rebuilt every day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EmpTemplateName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EmpYearsOfExperience</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EmpWishesName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EmpImageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testsk212@outlook.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -185,7 +203,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="4">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -207,6 +225,14 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -222,7 +248,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="5">
+  <x:borders count="7">
     <x:border>
       <x:left/>
       <x:right/>
@@ -284,9 +310,36 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right/>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -302,14 +355,23 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="23">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
@@ -335,9 +397,6 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
@@ -353,13 +412,18 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <x:xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -381,7 +445,8 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,8 +729,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C12" sqref="C12"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2 E2:E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -673,28 +738,28 @@
     <x:col min="1" max="1" width="7.710938" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="19.425781" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.710938" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.285156" style="17" customWidth="1"/>
-    <x:col min="5" max="5" width="23.710938" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="27.285156" style="15" customWidth="1"/>
+    <x:col min="5" max="5" width="27.855469" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="57.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="19.15" customHeight="1">
-      <x:c r="A1" s="18" t="s">
+      <x:c r="A1" s="20" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="18" t="s">
+      <x:c r="B1" s="20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="18" t="s">
+      <x:c r="C1" s="20" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="19" t="s">
+      <x:c r="D1" s="21" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="20" t="s">
+      <x:c r="E1" s="22" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="21" t="s">
+      <x:c r="F1" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -709,12 +774,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="16">
-        <x:v>34883</x:v>
-      </x:c>
-      <x:c r="E2" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="15" t="s">
+        <x:v>45503</x:v>
+      </x:c>
+      <x:c r="E2" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="17" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -729,13 +794,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="16">
-        <x:v>31598</x:v>
-      </x:c>
-      <x:c r="E3" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>45506</x:v>
+      </x:c>
+      <x:c r="E3" s="18" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="17" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -743,19 +808,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="16">
-        <x:v>45502</x:v>
-      </x:c>
-      <x:c r="E4" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>45506</x:v>
+      </x:c>
+      <x:c r="E4" s="18" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="17" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -765,15 +830,17 @@
       <x:c r="B5" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="4" t="s"/>
+      <x:c r="C5" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D5" s="16">
-        <x:v>45502</x:v>
-      </x:c>
-      <x:c r="E5" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>45506</x:v>
+      </x:c>
+      <x:c r="E5" s="18" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="17" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -781,26 +848,33 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="16">
-        <x:v>33427</x:v>
-      </x:c>
-      <x:c r="E6" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="15" t="s">
+        <x:v>45504</x:v>
+      </x:c>
+      <x:c r="E6" s="18" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="17" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6"/>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="E3" r:id="rId16"/>
+    <x:hyperlink ref="E2" r:id="rId17"/>
+    <x:hyperlink ref="E4" r:id="rId18"/>
+    <x:hyperlink ref="E5" r:id="rId19"/>
+    <x:hyperlink ref="E6" r:id="rId20"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId6"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
@@ -814,35 +888,35 @@
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D5" sqref="D5"/>
+      <x:selection activeCell="E2" sqref="E2 E2:E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="12.855469" style="0" customWidth="1"/>
     <x:col min="2" max="3" width="18.570312" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="19.570312" style="17" customWidth="1"/>
+    <x:col min="4" max="4" width="19.570312" style="15" customWidth="1"/>
     <x:col min="5" max="5" width="29.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="82" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="27.6" customHeight="1">
-      <x:c r="A1" s="19" t="s">
+      <x:c r="A1" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="19" t="s">
+      <x:c r="B1" s="21" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="19" t="s">
+      <x:c r="C1" s="21" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="19" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E1" s="19" t="s">
+      <x:c r="D1" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E1" s="21" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="21" t="s">
+      <x:c r="F1" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -851,15 +925,15 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C2" s="7" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D2" s="16">
+      <x:c r="D2" s="14">
         <x:v>34883</x:v>
       </x:c>
-      <x:c r="E2" s="6" t="s">
+      <x:c r="E2" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
@@ -871,15 +945,15 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D3" s="16">
-        <x:v>31598</x:v>
-      </x:c>
-      <x:c r="E3" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="14">
+        <x:v>45502</x:v>
+      </x:c>
+      <x:c r="E3" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
@@ -888,18 +962,18 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="3" t="n">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="16">
+      <x:c r="D4" s="14">
         <x:v>35251</x:v>
       </x:c>
-      <x:c r="E4" s="6" t="s">
+      <x:c r="E4" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
@@ -908,38 +982,38 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="3" t="n">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D5" s="16">
-        <x:v>45501</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="14">
+        <x:v>45482</x:v>
+      </x:c>
+      <x:c r="E5" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="3" t="n">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D6" s="16">
-        <x:v>33427</x:v>
-      </x:c>
-      <x:c r="E6" s="6" t="s">
+      <x:c r="D6" s="14">
+        <x:v>45483</x:v>
+      </x:c>
+      <x:c r="E6" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
@@ -947,6 +1021,13 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="E3" r:id="rId31"/>
+    <x:hyperlink ref="E2" r:id="rId32"/>
+    <x:hyperlink ref="E4" r:id="rId33"/>
+    <x:hyperlink ref="E5" r:id="rId34"/>
+    <x:hyperlink ref="E6" r:id="rId35"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -960,10 +1041,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F6"/>
+  <x:dimension ref="A1:F11"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D13" sqref="D13"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E12" sqref="E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -971,28 +1052,28 @@
     <x:col min="1" max="1" width="17.710938" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="18.570312" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.285156" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="26.855469" style="17" customWidth="1"/>
+    <x:col min="4" max="4" width="26.855469" style="15" customWidth="1"/>
     <x:col min="5" max="5" width="31.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="68.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A1" s="19" t="s">
+      <x:c r="A1" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="19" t="s">
+      <x:c r="B1" s="21" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="19" t="s">
+      <x:c r="C1" s="21" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E1" s="19" t="s">
+      <x:c r="D1" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="21" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="21" t="s">
+      <x:c r="F1" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1001,15 +1082,15 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="7" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="16">
+      <x:c r="D2" s="14">
         <x:v>34883</x:v>
       </x:c>
-      <x:c r="E2" s="6" t="s">
+      <x:c r="E2" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
@@ -1021,15 +1102,15 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D3" s="16">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="14">
         <x:v>31598</x:v>
       </x:c>
-      <x:c r="E3" s="6" t="s">
+      <x:c r="E3" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
@@ -1041,19 +1122,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D4" s="16">
-        <x:v>45501</x:v>
-      </x:c>
-      <x:c r="E4" s="6" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="14">
+        <x:v>45485</x:v>
+      </x:c>
+      <x:c r="E4" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -1061,19 +1142,19 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="16">
-        <x:v>45501</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
+      <x:c r="D5" s="14">
+        <x:v>45483</x:v>
+      </x:c>
+      <x:c r="E5" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1081,25 +1162,32 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D6" s="16">
+      <x:c r="D6" s="14">
         <x:v>33427</x:v>
       </x:c>
-      <x:c r="E6" s="6" t="s">
+      <x:c r="E6" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="D13" s="0" t="s"/>
+    <x:row r="11" spans="1:6">
+      <x:c r="D11" s="0" t="s"/>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="E3" r:id="rId36"/>
+    <x:hyperlink ref="E2" r:id="rId37"/>
+    <x:hyperlink ref="E4" r:id="rId38"/>
+    <x:hyperlink ref="E5" r:id="rId39"/>
+    <x:hyperlink ref="E6" r:id="rId40"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -1121,37 +1209,37 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="106.710938" style="11" customWidth="1"/>
+    <x:col min="1" max="1" width="106.710938" style="10" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" customFormat="1" ht="20.45" customHeight="1">
-      <x:c r="A1" s="22" t="s">
+      <x:c r="A1" s="24" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
+      <x:c r="A2" s="9" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
-      <x:c r="A2" s="10" t="s">
+    <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
+      <x:c r="A3" s="9" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
-      <x:c r="A3" s="10" t="s">
+    <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
+      <x:c r="A4" s="9" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
-      <x:c r="A4" s="10" t="s">
+    <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
+      <x:c r="A5" s="9" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
-      <x:c r="A5" s="10" t="s">
+    <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
+      <x:c r="A6" s="9" t="s">
         <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A6" s="10" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1180,33 +1268,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="20.45" customHeight="1">
-      <x:c r="A1" s="19" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
+      <x:c r="A2" s="11" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A2" s="12" t="s">
+    <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
+      <x:c r="A3" s="11" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
-      <x:c r="A3" s="12" t="s">
+    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
+      <x:c r="A4" s="11" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
-      <x:c r="A4" s="12" t="s">
+    <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
+      <x:c r="A5" s="11" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
-      <x:c r="A5" s="12" t="s">
+    <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
+      <x:c r="A6" s="9" t="s">
         <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A6" s="10" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1235,33 +1323,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="19.15" customHeight="1">
-      <x:c r="A1" s="19" t="s">
+      <x:c r="A1" s="21" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A2" s="12" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A2" s="13" t="s">
+    <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
+      <x:c r="A3" s="12" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A3" s="13" t="s">
+    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
+      <x:c r="A4" s="12" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
-      <x:c r="A4" s="13" t="s">
+    <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A5" s="12" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A5" s="13" t="s">
+    <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
+      <x:c r="A6" s="12" t="s">
         <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A6" s="13" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1278,7 +1366,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A4"/>
+  <x:dimension ref="A1:H5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="K11" sqref="K11"/>
@@ -1296,7 +1384,136 @@
     <x:col min="8" max="8" width="17.710938" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="4" spans="1:11" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A4" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27929"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27930"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E7E09E-F740-4993-A437-24E4A220E79D}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3B32D3-A439-45FD-9E78-3B9D7BC4491B}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -63,10 +63,10 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>Suraj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT-RPA</x:t>
+    <x:t>Sakshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Digital Marketing</x:t>
   </x:si>
   <x:si>
     <x:t>sakadav@bugraptors.com</x:t>
@@ -75,49 +75,169 @@
     <x:t xml:space="preserve">FAILED :   Dates are not matched </x:t>
   </x:si>
   <x:si>
-    <x:t>Vikas</x:t>
+    <x:t>Arundeep Randev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Java</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Vegisetti Srinivas </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raptors - Functional</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ravinder Singh </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open Source</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meenakshi Choudhary</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Munish Garg </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Md. Rahmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adesh Sharawat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raptors - Automation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sourav Sharma</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">SUCCESS  </x:t>
   </x:si>
   <x:si>
-    <x:t>Sonu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sharukha</x:t>
+    <x:t>Dipak Laxman Chaugule</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sahil Thakur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gurpreet Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amit Nanda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indus Devops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apoorv Sharma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shivanshu Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jaswinder Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mobile Team</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nitika Shangari</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indus - Functional</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inbasekaran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Creative Labs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anmol Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dot Net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isha Bharti</x:t>
   </x:si>
   <x:si>
     <x:t>EmpDOJ</x:t>
   </x:si>
   <x:si>
-    <x:t>Anjali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT-Devops</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ashok</x:t>
+    <x:t>Kanika Vatsyayan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akhilesh Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramanjeet Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pooja Gaba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sudhisha Dhawn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shivam Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vipan Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nidhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anuj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ajay Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minkle Kalra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nanhe Sharma</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sunny Loomba </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yugal Kishor Joshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indus Dev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renu Thakur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vivek Rana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gurwinder Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tejinder Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abhishek Vasudev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Designing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karanbir Kaur</x:t>
   </x:si>
   <x:si>
     <x:t>EmpDOW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nikhil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT-Tech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prachi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nikita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yadnya</x:t>
   </x:si>
   <x:si>
     <x:t>DOB_WishesName</x:t>
@@ -193,7 +313,28 @@
     <x:t>NA</x:t>
   </x:si>
   <x:si>
-    <x:t>testsk212@outlook.com</x:t>
+    <x:t>DOJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOW</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -203,7 +344,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="5">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -233,6 +374,11 @@
       <x:family val="2"/>
       <x:scheme val="minor"/>
     </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -248,7 +394,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="7">
+  <x:borders count="5">
     <x:border>
       <x:left/>
       <x:right/>
@@ -310,89 +456,42 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,32 +511,39 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -727,10 +833,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F7"/>
+  <x:dimension ref="A1:F22"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 E2:E6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <x:selection activeCell="D22" sqref="D22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -738,7 +844,7 @@
     <x:col min="1" max="1" width="7.710938" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="19.425781" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.710938" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.285156" style="15" customWidth="1"/>
+    <x:col min="4" max="4" width="27.285156" style="9" customWidth="1"/>
     <x:col min="5" max="5" width="27.855469" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="57.570312" style="0" customWidth="1"/>
   </x:cols>
@@ -756,125 +862,460 @@
       <x:c r="D1" s="21" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="22" t="s">
+      <x:c r="E1" s="20" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="23" t="s">
+      <x:c r="F1" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="3" t="n">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
+      <x:c r="A2" s="17" t="n">
+        <x:v>3604</x:v>
+      </x:c>
+      <x:c r="B2" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
+      <x:c r="C2" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D2" s="16">
-        <x:v>45503</x:v>
-      </x:c>
-      <x:c r="E2" s="19" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="17" t="s">
+      <x:c r="D2" s="14">
+        <x:v>34883</x:v>
+      </x:c>
+      <x:c r="E2" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="16" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="3" t="n">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
+      <x:c r="A3" s="17" t="n">
+        <x:v>1631</x:v>
+      </x:c>
+      <x:c r="B3" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="C3" s="13" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="14">
+        <x:v>31598</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="17" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c r="B4" s="13" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="14">
+        <x:v>35251</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="17" t="n">
+        <x:v>2998</x:v>
+      </x:c>
+      <x:c r="B5" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="14">
+        <x:v>32696</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" customFormat="1" ht="30.75" customHeight="1">
+      <x:c r="A6" s="17" t="n">
+        <x:v>3073</x:v>
+      </x:c>
+      <x:c r="B6" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="14">
+        <x:v>33427</x:v>
+      </x:c>
+      <x:c r="E6" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="17" t="n">
+        <x:v>3223</x:v>
+      </x:c>
+      <x:c r="B7" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D7" s="14">
+        <x:v>32698</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="17" t="n">
+        <x:v>3456</x:v>
+      </x:c>
+      <x:c r="B8" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="14">
+        <x:v>36717</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F8" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="17" t="n">
+        <x:v>3308</x:v>
+      </x:c>
+      <x:c r="B9" s="13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D9" s="14">
+        <x:v>33431</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="17" t="n">
+        <x:v>3449</x:v>
+      </x:c>
+      <x:c r="B10" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="14">
+        <x:v>36377</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="17" t="n">
+        <x:v>3664</x:v>
+      </x:c>
+      <x:c r="B11" s="13" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="14">
+        <x:v>32702</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F11" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="17" t="n">
+        <x:v>3890</x:v>
+      </x:c>
+      <x:c r="B12" s="13" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="16">
-        <x:v>45506</x:v>
-      </x:c>
-      <x:c r="E3" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="17" t="s">
+      <x:c r="D12" s="14">
+        <x:v>34528</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="17" t="n">
+        <x:v>3059</x:v>
+      </x:c>
+      <x:c r="B13" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D13" s="14">
+        <x:v>35259</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F13" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="17" t="n">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="B14" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C14" s="13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D14" s="14">
+        <x:v>30168</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A15" s="17" t="n">
+        <x:v>3786</x:v>
+      </x:c>
+      <x:c r="B15" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C15" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D15" s="14">
+        <x:v>33799</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F15" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A16" s="17" t="n">
+        <x:v>3441</x:v>
+      </x:c>
+      <x:c r="B16" s="13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C16" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="14">
+        <x:v>36722</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A17" s="17" t="n">
+        <x:v>3545</x:v>
+      </x:c>
+      <x:c r="B17" s="13" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C17" s="13" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="3" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="16">
-        <x:v>45506</x:v>
-      </x:c>
-      <x:c r="E4" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="3" t="n">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="16">
-        <x:v>45506</x:v>
-      </x:c>
-      <x:c r="E5" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="3" t="n">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="16">
-        <x:v>45504</x:v>
-      </x:c>
-      <x:c r="E6" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="17" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6"/>
+      <x:c r="D17" s="14">
+        <x:v>36723</x:v>
+      </x:c>
+      <x:c r="E17" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F17" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A18" s="17" t="n">
+        <x:v>3379</x:v>
+      </x:c>
+      <x:c r="B18" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C18" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D18" s="14">
+        <x:v>31610</x:v>
+      </x:c>
+      <x:c r="E18" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F18" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A19" s="17" t="n">
+        <x:v>3133</x:v>
+      </x:c>
+      <x:c r="B19" s="13" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C19" s="13" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D19" s="14">
+        <x:v>34167</x:v>
+      </x:c>
+      <x:c r="E19" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F19" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A20" s="17" t="n">
+        <x:v>3338</x:v>
+      </x:c>
+      <x:c r="B20" s="13" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C20" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D20" s="14">
+        <x:v>33090</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F20" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A21" s="17" t="n">
+        <x:v>3778</x:v>
+      </x:c>
+      <x:c r="B21" s="13" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C21" s="13" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D21" s="14">
+        <x:v>37090</x:v>
+      </x:c>
+      <x:c r="E21" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F21" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A22" s="17" t="n">
+        <x:v>3739</x:v>
+      </x:c>
+      <x:c r="B22" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C22" s="13" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D22" s="14">
+        <x:v>36377</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F22" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId16"/>
-    <x:hyperlink ref="E2" r:id="rId17"/>
-    <x:hyperlink ref="E4" r:id="rId18"/>
-    <x:hyperlink ref="E5" r:id="rId19"/>
-    <x:hyperlink ref="E6" r:id="rId20"/>
+    <x:hyperlink ref="E3" r:id="rId32"/>
+    <x:hyperlink ref="E2" r:id="rId33"/>
+    <x:hyperlink ref="E4" r:id="rId34"/>
+    <x:hyperlink ref="E5" r:id="rId35"/>
+    <x:hyperlink ref="E6" r:id="rId36"/>
+    <x:hyperlink ref="E7" r:id="rId37"/>
+    <x:hyperlink ref="E8" r:id="rId38"/>
+    <x:hyperlink ref="E9" r:id="rId39"/>
+    <x:hyperlink ref="E10" r:id="rId40"/>
+    <x:hyperlink ref="E11" r:id="rId41"/>
+    <x:hyperlink ref="E12" r:id="rId42"/>
+    <x:hyperlink ref="E13" r:id="rId43"/>
+    <x:hyperlink ref="E14" r:id="rId44"/>
+    <x:hyperlink ref="E15" r:id="rId45"/>
+    <x:hyperlink ref="E16" r:id="rId46"/>
+    <x:hyperlink ref="E17" r:id="rId47"/>
+    <x:hyperlink ref="E18" r:id="rId48"/>
+    <x:hyperlink ref="E19" r:id="rId49"/>
+    <x:hyperlink ref="E20" r:id="rId50"/>
+    <x:hyperlink ref="E21" r:id="rId51"/>
+    <x:hyperlink ref="E22" r:id="rId52"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId6"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId7"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
@@ -885,148 +1326,484 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F6"/>
+  <x:dimension ref="A1:F22"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 E2:E6"/>
+    <x:sheetView topLeftCell="A10" workbookViewId="0">
+      <x:selection activeCell="F26" sqref="F26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="12.855469" style="0" customWidth="1"/>
     <x:col min="2" max="3" width="18.570312" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="19.570312" style="15" customWidth="1"/>
+    <x:col min="4" max="4" width="19.570312" style="9" customWidth="1"/>
     <x:col min="5" max="5" width="29.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="82" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="27.6" customHeight="1">
-      <x:c r="A1" s="21" t="s">
+      <x:c r="A1" s="23" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="21" t="s">
+      <x:c r="B1" s="23" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="21" t="s">
+      <x:c r="C1" s="23" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="21" t="s">
+      <x:c r="D1" s="23" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E1" s="23" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="22" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="17" t="n">
+        <x:v>1764</x:v>
+      </x:c>
+      <x:c r="B2" s="17" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C2" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="14">
+        <x:v>40360</x:v>
+      </x:c>
+      <x:c r="E2" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="17" t="n">
+        <x:v>1939</x:v>
+      </x:c>
+      <x:c r="B3" s="17" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C3" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="14">
+        <x:v>40725</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="17" t="n">
+        <x:v>2549</x:v>
+      </x:c>
+      <x:c r="B4" s="17" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C4" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="14">
+        <x:v>42186</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="17" t="n">
+        <x:v>2678</x:v>
+      </x:c>
+      <x:c r="B5" s="17" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C5" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D5" s="14">
+        <x:v>42552</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="17" t="n">
+        <x:v>2679</x:v>
+      </x:c>
+      <x:c r="B6" s="17" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C6" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D6" s="14">
+        <x:v>42552</x:v>
+      </x:c>
+      <x:c r="E6" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="17" t="n">
+        <x:v>3095</x:v>
+      </x:c>
+      <x:c r="B7" s="17" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C7" s="17" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E1" s="21" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="23" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="6" t="n">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C2" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D2" s="14">
-        <x:v>34883</x:v>
-      </x:c>
-      <x:c r="E2" s="19" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="6" t="n">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D3" s="14">
-        <x:v>45502</x:v>
-      </x:c>
-      <x:c r="E3" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="3" t="n">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="D7" s="14">
+        <x:v>43647</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="17" t="n">
+        <x:v>3162</x:v>
+      </x:c>
+      <x:c r="B8" s="17" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C8" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D8" s="14">
+        <x:v>44013</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F8" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="17" t="n">
+        <x:v>3376</x:v>
+      </x:c>
+      <x:c r="B9" s="17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C9" s="17" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D9" s="14">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="17" t="n">
+        <x:v>3384</x:v>
+      </x:c>
+      <x:c r="B10" s="17" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C10" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D10" s="14">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="17" t="n">
+        <x:v>3385</x:v>
+      </x:c>
+      <x:c r="B11" s="17" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C11" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D11" s="14">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F11" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="17" t="n">
+        <x:v>2889</x:v>
+      </x:c>
+      <x:c r="B12" s="17" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C12" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="14">
+        <x:v>43283</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="17" t="n">
+        <x:v>2935</x:v>
+      </x:c>
+      <x:c r="B13" s="17" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C13" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="14">
+        <x:v>43317</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F13" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="17" t="n">
+        <x:v>3022</x:v>
+      </x:c>
+      <x:c r="B14" s="17" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C14" s="17" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D14" s="14">
+        <x:v>43649</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A15" s="17" t="n">
+        <x:v>3827</x:v>
+      </x:c>
+      <x:c r="B15" s="17" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D15" s="14">
+        <x:v>45110</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F15" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A16" s="17" t="n">
+        <x:v>2713</x:v>
+      </x:c>
+      <x:c r="B16" s="17" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C16" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D16" s="14">
+        <x:v>42555</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A17" s="17" t="n">
+        <x:v>2567</x:v>
+      </x:c>
+      <x:c r="B17" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C17" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="14">
+        <x:v>42191</x:v>
+      </x:c>
+      <x:c r="E17" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F17" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A18" s="17" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c r="B18" s="17" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="14">
-        <x:v>35251</x:v>
-      </x:c>
-      <x:c r="E4" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="3" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
+      <x:c r="C18" s="17" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D5" s="14">
-        <x:v>45482</x:v>
-      </x:c>
-      <x:c r="E5" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="3" t="n">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="14">
-        <x:v>45483</x:v>
-      </x:c>
-      <x:c r="E6" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="D18" s="14">
+        <x:v>43656</x:v>
+      </x:c>
+      <x:c r="E18" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F18" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A19" s="17" t="n">
+        <x:v>3618</x:v>
+      </x:c>
+      <x:c r="B19" s="17" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D19" s="14">
+        <x:v>44754</x:v>
+      </x:c>
+      <x:c r="E19" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F19" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A20" s="17" t="n">
+        <x:v>3029</x:v>
+      </x:c>
+      <x:c r="B20" s="17" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C20" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D20" s="14">
+        <x:v>43661</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F20" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A21" s="17" t="n">
+        <x:v>1940</x:v>
+      </x:c>
+      <x:c r="B21" s="17" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="17" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="14">
+        <x:v>40760</x:v>
+      </x:c>
+      <x:c r="E21" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F21" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A22" s="17" t="n">
+        <x:v>2727</x:v>
+      </x:c>
+      <x:c r="B22" s="17" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D22" s="14">
+        <x:v>42587</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F22" s="16" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId31"/>
-    <x:hyperlink ref="E2" r:id="rId32"/>
-    <x:hyperlink ref="E4" r:id="rId33"/>
-    <x:hyperlink ref="E5" r:id="rId34"/>
-    <x:hyperlink ref="E6" r:id="rId35"/>
+    <x:hyperlink ref="E3" r:id="rId95"/>
+    <x:hyperlink ref="E2" r:id="rId96"/>
+    <x:hyperlink ref="E4" r:id="rId97"/>
+    <x:hyperlink ref="E5" r:id="rId98"/>
+    <x:hyperlink ref="E6" r:id="rId99"/>
+    <x:hyperlink ref="E7" r:id="rId100"/>
+    <x:hyperlink ref="E8" r:id="rId101"/>
+    <x:hyperlink ref="E9" r:id="rId102"/>
+    <x:hyperlink ref="E10" r:id="rId103"/>
+    <x:hyperlink ref="E11" r:id="rId104"/>
+    <x:hyperlink ref="E12" r:id="rId105"/>
+    <x:hyperlink ref="E13" r:id="rId106"/>
+    <x:hyperlink ref="E14" r:id="rId107"/>
+    <x:hyperlink ref="E15" r:id="rId108"/>
+    <x:hyperlink ref="E16" r:id="rId109"/>
+    <x:hyperlink ref="E17" r:id="rId110"/>
+    <x:hyperlink ref="E18" r:id="rId111"/>
+    <x:hyperlink ref="E19" r:id="rId112"/>
+    <x:hyperlink ref="E20" r:id="rId113"/>
+    <x:hyperlink ref="E21" r:id="rId114"/>
+    <x:hyperlink ref="E22" r:id="rId115"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,10 +1818,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F11"/>
+  <x:dimension ref="A1:F16"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E12" sqref="E12"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D19" sqref="D19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1052,7 +1829,7 @@
     <x:col min="1" max="1" width="17.710938" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="18.570312" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.285156" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="26.855469" style="15" customWidth="1"/>
+    <x:col min="4" max="4" width="26.855469" style="9" customWidth="1"/>
     <x:col min="5" max="5" width="31.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="68.140625" style="0" customWidth="1"/>
   </x:cols>
@@ -1068,125 +1845,335 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E1" s="21" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="23" t="s">
+      <x:c r="F1" s="22" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="6" t="n">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
+    <x:row r="2" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A2" s="17" t="n">
+        <x:v>3162</x:v>
+      </x:c>
+      <x:c r="B2" s="17" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C2" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D2" s="14">
+        <x:v>44013</x:v>
+      </x:c>
+      <x:c r="E2" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A3" s="17" t="n">
+        <x:v>3376</x:v>
+      </x:c>
+      <x:c r="B3" s="17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C3" s="17" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C2" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D2" s="14">
-        <x:v>34883</x:v>
-      </x:c>
-      <x:c r="E2" s="19" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="6" t="n">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s">
+      <x:c r="D3" s="14">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A4" s="17" t="n">
+        <x:v>3384</x:v>
+      </x:c>
+      <x:c r="B4" s="17" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C4" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D4" s="14">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="17" t="n">
+        <x:v>3385</x:v>
+      </x:c>
+      <x:c r="B5" s="17" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C5" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D5" s="14">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A6" s="17" t="n">
+        <x:v>2889</x:v>
+      </x:c>
+      <x:c r="B6" s="17" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C6" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="14">
+        <x:v>43283</x:v>
+      </x:c>
+      <x:c r="E6" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="17" t="n">
+        <x:v>2935</x:v>
+      </x:c>
+      <x:c r="B7" s="17" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C7" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="14">
+        <x:v>43284</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="17" t="n">
+        <x:v>3022</x:v>
+      </x:c>
+      <x:c r="B8" s="17" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C8" s="17" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D8" s="14">
+        <x:v>43649</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F8" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="17" t="n">
+        <x:v>3827</x:v>
+      </x:c>
+      <x:c r="B9" s="17" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C9" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D9" s="14">
+        <x:v>45110</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="17" t="n">
+        <x:v>2713</x:v>
+      </x:c>
+      <x:c r="B10" s="17" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C10" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D10" s="14">
+        <x:v>42555</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="17" t="n">
+        <x:v>2567</x:v>
+      </x:c>
+      <x:c r="B11" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C11" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="14">
+        <x:v>42191</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F11" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="17" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c r="B12" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D12" s="14">
+        <x:v>43656</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="17" t="n">
+        <x:v>3618</x:v>
+      </x:c>
+      <x:c r="B13" s="17" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C13" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="14">
+        <x:v>44754</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F13" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="17" t="n">
+        <x:v>3029</x:v>
+      </x:c>
+      <x:c r="B14" s="17" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C14" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="14">
+        <x:v>43661</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A15" s="17" t="n">
+        <x:v>1940</x:v>
+      </x:c>
+      <x:c r="B15" s="17" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C15" s="17" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D15" s="14">
+        <x:v>40760</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F15" s="16" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D3" s="14">
-        <x:v>31598</x:v>
-      </x:c>
-      <x:c r="E3" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="6" t="n">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C4" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D4" s="14">
-        <x:v>45485</x:v>
-      </x:c>
-      <x:c r="E4" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="3" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="14">
-        <x:v>45483</x:v>
-      </x:c>
-      <x:c r="E5" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="6" t="n">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="14">
-        <x:v>33427</x:v>
-      </x:c>
-      <x:c r="E6" s="18" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="D11" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:6" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A16" s="17" t="n">
+        <x:v>2727</x:v>
+      </x:c>
+      <x:c r="B16" s="17" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C16" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D16" s="14">
+        <x:v>42587</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="D19" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId36"/>
-    <x:hyperlink ref="E2" r:id="rId37"/>
-    <x:hyperlink ref="E4" r:id="rId38"/>
-    <x:hyperlink ref="E5" r:id="rId39"/>
-    <x:hyperlink ref="E6" r:id="rId40"/>
+    <x:hyperlink ref="E2" r:id="rId116"/>
+    <x:hyperlink ref="E3" r:id="rId117"/>
+    <x:hyperlink ref="E4" r:id="rId118"/>
+    <x:hyperlink ref="E5" r:id="rId119"/>
+    <x:hyperlink ref="E6" r:id="rId120"/>
+    <x:hyperlink ref="E7" r:id="rId121"/>
+    <x:hyperlink ref="E8" r:id="rId122"/>
+    <x:hyperlink ref="E9" r:id="rId123"/>
+    <x:hyperlink ref="E10" r:id="rId124"/>
+    <x:hyperlink ref="E11" r:id="rId125"/>
+    <x:hyperlink ref="E12" r:id="rId126"/>
+    <x:hyperlink ref="E13" r:id="rId127"/>
+    <x:hyperlink ref="E14" r:id="rId128"/>
+    <x:hyperlink ref="E15" r:id="rId129"/>
+    <x:hyperlink ref="E16" r:id="rId130"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,37 +2196,37 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="106.710938" style="10" customWidth="1"/>
+    <x:col min="1" max="1" width="106.710938" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" customFormat="1" ht="20.45" customHeight="1">
       <x:c r="A1" s="24" t="s">
-        <x:v>25</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
-      <x:c r="A2" s="9" t="s">
-        <x:v>26</x:v>
+      <x:c r="A2" s="4" t="s">
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1">
-      <x:c r="A3" s="9" t="s">
-        <x:v>27</x:v>
+      <x:c r="A3" s="4" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1">
-      <x:c r="A4" s="9" t="s">
-        <x:v>28</x:v>
+      <x:c r="A4" s="4" t="s">
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1">
-      <x:c r="A5" s="9" t="s">
-        <x:v>29</x:v>
+      <x:c r="A5" s="4" t="s">
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A6" s="9" t="s">
-        <x:v>30</x:v>
+      <x:c r="A6" s="4" t="s">
+        <x:v>70</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1268,33 +2255,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="20.45" customHeight="1">
-      <x:c r="A1" s="21" t="s">
-        <x:v>31</x:v>
+      <x:c r="A1" s="23" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A2" s="11" t="s">
-        <x:v>32</x:v>
+      <x:c r="A2" s="6" t="s">
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1">
-      <x:c r="A3" s="11" t="s">
-        <x:v>33</x:v>
+      <x:c r="A3" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
-      <x:c r="A4" s="11" t="s">
-        <x:v>34</x:v>
+      <x:c r="A4" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1">
-      <x:c r="A5" s="11" t="s">
-        <x:v>35</x:v>
+      <x:c r="A5" s="6" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A6" s="9" t="s">
-        <x:v>36</x:v>
+      <x:c r="A6" s="4" t="s">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1323,33 +2310,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="19.15" customHeight="1">
-      <x:c r="A1" s="21" t="s">
-        <x:v>37</x:v>
+      <x:c r="A1" s="23" t="s">
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A2" s="12" t="s">
-        <x:v>38</x:v>
+      <x:c r="A2" s="7" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A3" s="12" t="s">
-        <x:v>39</x:v>
+      <x:c r="A3" s="7" t="s">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1">
-      <x:c r="A4" s="12" t="s">
-        <x:v>40</x:v>
+      <x:c r="A4" s="7" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A5" s="12" t="s">
-        <x:v>41</x:v>
+      <x:c r="A5" s="7" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="22.15" customHeight="1">
-      <x:c r="A6" s="12" t="s">
-        <x:v>42</x:v>
+      <x:c r="A6" s="7" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1395,123 +2382,253 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>3449</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>1587</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11" customFormat="1" ht="15" customHeight="1">
       <x:c r="A4" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>3338</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>3739</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="n">
+        <x:v>2935</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="n">
+        <x:v>1940</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="n">
+        <x:v>2727</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="n">
+        <x:v>1940</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="n">
+        <x:v>2727</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F5365BA-4E33-4E5A-8F77-7D46F7C1A1AF}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{245B0AA2-BD47-497D-AA11-83B81E1796E7}"/>
   <x:bookViews>
     <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -20,9 +20,9 @@
     <x:sheet name="DOJ__Greetings" sheetId="6" r:id="rId5"/>
     <x:sheet name="DOW__Greetings" sheetId="7" r:id="rId6"/>
     <x:sheet name="EmpData" sheetId="4" r:id="rId7"/>
-    <x:sheet name="DOB_27_August" sheetId="11" r:id="rId11"/>
-    <x:sheet name="DOJ_27_August" sheetId="12" r:id="rId12"/>
-    <x:sheet name="DOW_27_August" sheetId="13" r:id="rId13"/>
+    <x:sheet name="DOB_28_August" sheetId="11" r:id="rId11"/>
+    <x:sheet name="DOJ_28_August" sheetId="12" r:id="rId12"/>
+    <x:sheet name="DOW_28_August" sheetId="13" r:id="rId13"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -236,9 +236,6 @@
   </x:si>
   <x:si>
     <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1940</x:t>
   </x:si>
   <x:si>
     <x:t>2727</x:t>
@@ -1083,7 +1080,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D21" s="9">
-        <x:v>42610</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
         <x:v>7</x:v>
@@ -1584,55 +1581,55 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId68"/>
-    <x:hyperlink ref="E2" r:id="rId69"/>
-    <x:hyperlink ref="E4" r:id="rId70"/>
-    <x:hyperlink ref="E5" r:id="rId71"/>
-    <x:hyperlink ref="E6" r:id="rId72"/>
-    <x:hyperlink ref="E7" r:id="rId73"/>
-    <x:hyperlink ref="E8" r:id="rId74"/>
-    <x:hyperlink ref="E9" r:id="rId75"/>
-    <x:hyperlink ref="E10" r:id="rId76"/>
-    <x:hyperlink ref="E11" r:id="rId77"/>
-    <x:hyperlink ref="E12" r:id="rId78"/>
-    <x:hyperlink ref="E13" r:id="rId79"/>
-    <x:hyperlink ref="E14" r:id="rId80"/>
-    <x:hyperlink ref="E15" r:id="rId81"/>
-    <x:hyperlink ref="E16" r:id="rId82"/>
-    <x:hyperlink ref="E17" r:id="rId83"/>
-    <x:hyperlink ref="E18" r:id="rId84"/>
-    <x:hyperlink ref="E19" r:id="rId85"/>
-    <x:hyperlink ref="E20" r:id="rId86"/>
-    <x:hyperlink ref="E21" r:id="rId87"/>
-    <x:hyperlink ref="E22" r:id="rId88"/>
-    <x:hyperlink ref="E24" r:id="rId89"/>
-    <x:hyperlink ref="E23" r:id="rId90"/>
-    <x:hyperlink ref="E25" r:id="rId91"/>
-    <x:hyperlink ref="E26" r:id="rId92"/>
-    <x:hyperlink ref="E27" r:id="rId93"/>
-    <x:hyperlink ref="E28" r:id="rId94"/>
-    <x:hyperlink ref="E29" r:id="rId95"/>
-    <x:hyperlink ref="E30" r:id="rId96"/>
-    <x:hyperlink ref="E31" r:id="rId97"/>
-    <x:hyperlink ref="E32" r:id="rId98"/>
-    <x:hyperlink ref="E33" r:id="rId99"/>
-    <x:hyperlink ref="E34" r:id="rId100"/>
-    <x:hyperlink ref="E35" r:id="rId101"/>
-    <x:hyperlink ref="E36" r:id="rId102"/>
-    <x:hyperlink ref="E37" r:id="rId103"/>
-    <x:hyperlink ref="E38" r:id="rId104"/>
-    <x:hyperlink ref="E39" r:id="rId105"/>
-    <x:hyperlink ref="E40" r:id="rId106"/>
-    <x:hyperlink ref="E41" r:id="rId107"/>
-    <x:hyperlink ref="E42" r:id="rId108"/>
-    <x:hyperlink ref="E43" r:id="rId109"/>
-    <x:hyperlink ref="E45" r:id="rId110"/>
-    <x:hyperlink ref="E44" r:id="rId111"/>
-    <x:hyperlink ref="E46" r:id="rId112"/>
-    <x:hyperlink ref="E47" r:id="rId113"/>
-    <x:hyperlink ref="E48" r:id="rId114"/>
-    <x:hyperlink ref="E49" r:id="rId115"/>
-    <x:hyperlink ref="E50" r:id="rId116"/>
+    <x:hyperlink ref="E3" r:id="rId63"/>
+    <x:hyperlink ref="E2" r:id="rId64"/>
+    <x:hyperlink ref="E4" r:id="rId65"/>
+    <x:hyperlink ref="E5" r:id="rId66"/>
+    <x:hyperlink ref="E6" r:id="rId67"/>
+    <x:hyperlink ref="E7" r:id="rId117"/>
+    <x:hyperlink ref="E8" r:id="rId118"/>
+    <x:hyperlink ref="E9" r:id="rId119"/>
+    <x:hyperlink ref="E10" r:id="rId120"/>
+    <x:hyperlink ref="E11" r:id="rId121"/>
+    <x:hyperlink ref="E12" r:id="rId122"/>
+    <x:hyperlink ref="E13" r:id="rId123"/>
+    <x:hyperlink ref="E14" r:id="rId124"/>
+    <x:hyperlink ref="E15" r:id="rId125"/>
+    <x:hyperlink ref="E16" r:id="rId126"/>
+    <x:hyperlink ref="E17" r:id="rId127"/>
+    <x:hyperlink ref="E18" r:id="rId128"/>
+    <x:hyperlink ref="E19" r:id="rId129"/>
+    <x:hyperlink ref="E20" r:id="rId130"/>
+    <x:hyperlink ref="E21" r:id="rId131"/>
+    <x:hyperlink ref="E22" r:id="rId132"/>
+    <x:hyperlink ref="E24" r:id="rId133"/>
+    <x:hyperlink ref="E23" r:id="rId134"/>
+    <x:hyperlink ref="E25" r:id="rId135"/>
+    <x:hyperlink ref="E26" r:id="rId136"/>
+    <x:hyperlink ref="E27" r:id="rId137"/>
+    <x:hyperlink ref="E28" r:id="rId138"/>
+    <x:hyperlink ref="E29" r:id="rId139"/>
+    <x:hyperlink ref="E30" r:id="rId140"/>
+    <x:hyperlink ref="E31" r:id="rId141"/>
+    <x:hyperlink ref="E32" r:id="rId142"/>
+    <x:hyperlink ref="E33" r:id="rId143"/>
+    <x:hyperlink ref="E34" r:id="rId144"/>
+    <x:hyperlink ref="E35" r:id="rId145"/>
+    <x:hyperlink ref="E36" r:id="rId146"/>
+    <x:hyperlink ref="E37" r:id="rId147"/>
+    <x:hyperlink ref="E38" r:id="rId148"/>
+    <x:hyperlink ref="E39" r:id="rId149"/>
+    <x:hyperlink ref="E40" r:id="rId150"/>
+    <x:hyperlink ref="E41" r:id="rId151"/>
+    <x:hyperlink ref="E42" r:id="rId152"/>
+    <x:hyperlink ref="E43" r:id="rId153"/>
+    <x:hyperlink ref="E45" r:id="rId154"/>
+    <x:hyperlink ref="E44" r:id="rId155"/>
+    <x:hyperlink ref="E46" r:id="rId156"/>
+    <x:hyperlink ref="E47" r:id="rId157"/>
+    <x:hyperlink ref="E48" r:id="rId158"/>
+    <x:hyperlink ref="E49" r:id="rId159"/>
+    <x:hyperlink ref="E50" r:id="rId160"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,7 +1644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1672,42 +1669,22 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="n">
-        <x:v>3095</x:v>
+        <x:v>3162</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="18">
-        <x:v>42610</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="n">
-        <x:v>3162</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D3" s="18">
-        <x:v>42610</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1727,7 +1704,7 @@
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A26" workbookViewId="0">
-      <x:selection activeCell="D42" sqref="D42"/>
+      <x:selection activeCell="D43" sqref="D43"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -2464,7 +2441,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" s="9">
-        <x:v>42610</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="E43" s="7" t="s">
         <x:v>7</x:v>
@@ -2591,55 +2568,55 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId161"/>
-    <x:hyperlink ref="E2" r:id="rId162"/>
-    <x:hyperlink ref="E4" r:id="rId163"/>
-    <x:hyperlink ref="E5" r:id="rId164"/>
-    <x:hyperlink ref="E6" r:id="rId165"/>
-    <x:hyperlink ref="E7" r:id="rId215"/>
-    <x:hyperlink ref="E8" r:id="rId216"/>
-    <x:hyperlink ref="E9" r:id="rId217"/>
-    <x:hyperlink ref="E10" r:id="rId218"/>
-    <x:hyperlink ref="E11" r:id="rId219"/>
-    <x:hyperlink ref="E12" r:id="rId220"/>
-    <x:hyperlink ref="E13" r:id="rId221"/>
-    <x:hyperlink ref="E14" r:id="rId222"/>
-    <x:hyperlink ref="E15" r:id="rId223"/>
-    <x:hyperlink ref="E16" r:id="rId224"/>
-    <x:hyperlink ref="E17" r:id="rId225"/>
-    <x:hyperlink ref="E18" r:id="rId226"/>
-    <x:hyperlink ref="E19" r:id="rId227"/>
-    <x:hyperlink ref="E20" r:id="rId228"/>
-    <x:hyperlink ref="E21" r:id="rId229"/>
-    <x:hyperlink ref="E22" r:id="rId230"/>
-    <x:hyperlink ref="E24" r:id="rId231"/>
-    <x:hyperlink ref="E23" r:id="rId232"/>
-    <x:hyperlink ref="E25" r:id="rId233"/>
-    <x:hyperlink ref="E26" r:id="rId234"/>
-    <x:hyperlink ref="E27" r:id="rId235"/>
-    <x:hyperlink ref="E28" r:id="rId236"/>
-    <x:hyperlink ref="E29" r:id="rId237"/>
-    <x:hyperlink ref="E30" r:id="rId238"/>
-    <x:hyperlink ref="E31" r:id="rId239"/>
-    <x:hyperlink ref="E32" r:id="rId240"/>
-    <x:hyperlink ref="E33" r:id="rId241"/>
-    <x:hyperlink ref="E34" r:id="rId242"/>
-    <x:hyperlink ref="E35" r:id="rId243"/>
-    <x:hyperlink ref="E36" r:id="rId244"/>
-    <x:hyperlink ref="E37" r:id="rId245"/>
-    <x:hyperlink ref="E38" r:id="rId246"/>
-    <x:hyperlink ref="E39" r:id="rId247"/>
-    <x:hyperlink ref="E40" r:id="rId248"/>
-    <x:hyperlink ref="E41" r:id="rId249"/>
-    <x:hyperlink ref="E42" r:id="rId250"/>
-    <x:hyperlink ref="E43" r:id="rId251"/>
-    <x:hyperlink ref="E45" r:id="rId252"/>
-    <x:hyperlink ref="E44" r:id="rId253"/>
-    <x:hyperlink ref="E46" r:id="rId254"/>
-    <x:hyperlink ref="E47" r:id="rId255"/>
-    <x:hyperlink ref="E48" r:id="rId256"/>
-    <x:hyperlink ref="E49" r:id="rId257"/>
-    <x:hyperlink ref="E50" r:id="rId258"/>
+    <x:hyperlink ref="E3" r:id="rId166"/>
+    <x:hyperlink ref="E2" r:id="rId167"/>
+    <x:hyperlink ref="E4" r:id="rId168"/>
+    <x:hyperlink ref="E5" r:id="rId169"/>
+    <x:hyperlink ref="E6" r:id="rId170"/>
+    <x:hyperlink ref="E7" r:id="rId171"/>
+    <x:hyperlink ref="E8" r:id="rId172"/>
+    <x:hyperlink ref="E9" r:id="rId173"/>
+    <x:hyperlink ref="E10" r:id="rId174"/>
+    <x:hyperlink ref="E11" r:id="rId175"/>
+    <x:hyperlink ref="E12" r:id="rId176"/>
+    <x:hyperlink ref="E13" r:id="rId177"/>
+    <x:hyperlink ref="E14" r:id="rId178"/>
+    <x:hyperlink ref="E15" r:id="rId179"/>
+    <x:hyperlink ref="E16" r:id="rId180"/>
+    <x:hyperlink ref="E17" r:id="rId181"/>
+    <x:hyperlink ref="E18" r:id="rId182"/>
+    <x:hyperlink ref="E19" r:id="rId183"/>
+    <x:hyperlink ref="E20" r:id="rId184"/>
+    <x:hyperlink ref="E21" r:id="rId185"/>
+    <x:hyperlink ref="E22" r:id="rId186"/>
+    <x:hyperlink ref="E24" r:id="rId187"/>
+    <x:hyperlink ref="E23" r:id="rId188"/>
+    <x:hyperlink ref="E25" r:id="rId189"/>
+    <x:hyperlink ref="E26" r:id="rId190"/>
+    <x:hyperlink ref="E27" r:id="rId191"/>
+    <x:hyperlink ref="E28" r:id="rId192"/>
+    <x:hyperlink ref="E29" r:id="rId193"/>
+    <x:hyperlink ref="E30" r:id="rId194"/>
+    <x:hyperlink ref="E31" r:id="rId195"/>
+    <x:hyperlink ref="E32" r:id="rId196"/>
+    <x:hyperlink ref="E33" r:id="rId197"/>
+    <x:hyperlink ref="E34" r:id="rId198"/>
+    <x:hyperlink ref="E35" r:id="rId199"/>
+    <x:hyperlink ref="E36" r:id="rId200"/>
+    <x:hyperlink ref="E37" r:id="rId201"/>
+    <x:hyperlink ref="E38" r:id="rId202"/>
+    <x:hyperlink ref="E39" r:id="rId203"/>
+    <x:hyperlink ref="E40" r:id="rId204"/>
+    <x:hyperlink ref="E41" r:id="rId205"/>
+    <x:hyperlink ref="E42" r:id="rId206"/>
+    <x:hyperlink ref="E43" r:id="rId207"/>
+    <x:hyperlink ref="E45" r:id="rId208"/>
+    <x:hyperlink ref="E44" r:id="rId209"/>
+    <x:hyperlink ref="E46" r:id="rId210"/>
+    <x:hyperlink ref="E47" r:id="rId211"/>
+    <x:hyperlink ref="E48" r:id="rId212"/>
+    <x:hyperlink ref="E49" r:id="rId213"/>
+    <x:hyperlink ref="E50" r:id="rId214"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2657,7 +2634,7 @@
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <x:selection activeCell="H49" sqref="H49"/>
+      <x:selection activeCell="K46" sqref="K46"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -2669,7 +2646,7 @@
     <x:col min="5" max="5" width="37" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="15" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -2686,7 +2663,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:11">
       <x:c r="A2" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -2703,7 +2680,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
+    <x:row r="3" spans="1:11">
       <x:c r="A3" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -2720,7 +2697,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8">
+    <x:row r="4" spans="1:11">
       <x:c r="A4" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -2737,7 +2714,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
+    <x:row r="5" spans="1:11">
       <x:c r="A5" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -2754,7 +2731,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8">
+    <x:row r="6" spans="1:11">
       <x:c r="A6" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -2771,7 +2748,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8">
+    <x:row r="7" spans="1:11">
       <x:c r="A7" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -2788,7 +2765,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8">
+    <x:row r="8" spans="1:11">
       <x:c r="A8" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -2805,7 +2782,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:8">
+    <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -2822,7 +2799,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8">
+    <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -2839,7 +2816,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
+    <x:row r="11" spans="1:11">
       <x:c r="A11" s="11" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -2856,7 +2833,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:8">
+    <x:row r="12" spans="1:11">
       <x:c r="A12" s="11" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -2873,7 +2850,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8">
+    <x:row r="13" spans="1:11">
       <x:c r="A13" s="11" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -2890,7 +2867,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:8">
+    <x:row r="14" spans="1:11">
       <x:c r="A14" s="11" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -2907,7 +2884,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:8">
+    <x:row r="15" spans="1:11">
       <x:c r="A15" s="11" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -2924,7 +2901,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:8">
+    <x:row r="16" spans="1:11">
       <x:c r="A16" s="11" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -2941,7 +2918,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:8">
+    <x:row r="17" spans="1:11">
       <x:c r="A17" s="11" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -2958,7 +2935,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:8">
+    <x:row r="18" spans="1:11">
       <x:c r="A18" s="11" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -2975,7 +2952,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:8">
+    <x:row r="19" spans="1:11">
       <x:c r="A19" s="11" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -2992,7 +2969,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:8">
+    <x:row r="20" spans="1:11">
       <x:c r="A20" s="11" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -3009,7 +2986,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:8">
+    <x:row r="21" spans="1:11">
       <x:c r="A21" s="11" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -3026,7 +3003,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:8">
+    <x:row r="22" spans="1:11">
       <x:c r="A22" s="11" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -3043,7 +3020,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:8">
+    <x:row r="23" spans="1:11">
       <x:c r="A23" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -3060,7 +3037,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:8">
+    <x:row r="24" spans="1:11">
       <x:c r="A24" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -3077,7 +3054,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:8">
+    <x:row r="25" spans="1:11">
       <x:c r="A25" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -3094,7 +3071,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:8">
+    <x:row r="26" spans="1:11">
       <x:c r="A26" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -3111,7 +3088,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:8">
+    <x:row r="27" spans="1:11">
       <x:c r="A27" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -3128,7 +3105,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:8">
+    <x:row r="28" spans="1:11">
       <x:c r="A28" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -3145,7 +3122,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:8">
+    <x:row r="29" spans="1:11">
       <x:c r="A29" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -3162,7 +3139,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:8">
+    <x:row r="30" spans="1:11">
       <x:c r="A30" s="11" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -3179,7 +3156,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:8">
+    <x:row r="31" spans="1:11">
       <x:c r="A31" s="11" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -3196,7 +3173,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:8">
+    <x:row r="32" spans="1:11">
       <x:c r="A32" s="11" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -3213,7 +3190,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:8">
+    <x:row r="33" spans="1:11">
       <x:c r="A33" s="11" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -3230,7 +3207,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:8">
+    <x:row r="34" spans="1:11">
       <x:c r="A34" s="11" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -3247,7 +3224,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:8">
+    <x:row r="35" spans="1:11">
       <x:c r="A35" s="11" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -3264,7 +3241,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:8">
+    <x:row r="36" spans="1:11">
       <x:c r="A36" s="11" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -3281,7 +3258,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:8">
+    <x:row r="37" spans="1:11">
       <x:c r="A37" s="11" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -3298,7 +3275,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:8">
+    <x:row r="38" spans="1:11">
       <x:c r="A38" s="11" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -3315,7 +3292,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:8">
+    <x:row r="39" spans="1:11">
       <x:c r="A39" s="11" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -3332,7 +3309,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:8">
+    <x:row r="40" spans="1:11">
       <x:c r="A40" s="11" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -3349,7 +3326,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:8">
+    <x:row r="41" spans="1:11">
       <x:c r="A41" s="11" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -3366,7 +3343,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:8">
+    <x:row r="42" spans="1:11">
       <x:c r="A42" s="11" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -3383,7 +3360,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:8">
+    <x:row r="43" spans="1:11">
       <x:c r="A43" s="11" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -3400,7 +3377,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:8">
+    <x:row r="44" spans="1:11">
       <x:c r="A44" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -3417,7 +3394,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:8">
+    <x:row r="45" spans="1:11">
       <x:c r="A45" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -3434,7 +3411,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:8">
+    <x:row r="46" spans="1:11">
       <x:c r="A46" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -3451,7 +3428,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:8">
+    <x:row r="47" spans="1:11">
       <x:c r="A47" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -3468,7 +3445,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:8">
+    <x:row r="48" spans="1:11">
       <x:c r="A48" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -3485,7 +3462,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:8">
+    <x:row r="49" spans="1:11">
       <x:c r="A49" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -3502,7 +3479,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:8">
+    <x:row r="50" spans="1:11">
       <x:c r="A50" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -3513,7 +3490,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D50" s="9">
-        <x:v>42610</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="E50" s="7" t="s">
         <x:v>7</x:v>
@@ -3521,55 +3498,55 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId264"/>
-    <x:hyperlink ref="E2" r:id="rId265"/>
-    <x:hyperlink ref="E4" r:id="rId266"/>
-    <x:hyperlink ref="E5" r:id="rId267"/>
-    <x:hyperlink ref="E6" r:id="rId268"/>
-    <x:hyperlink ref="E7" r:id="rId269"/>
-    <x:hyperlink ref="E8" r:id="rId270"/>
-    <x:hyperlink ref="E9" r:id="rId271"/>
-    <x:hyperlink ref="E10" r:id="rId272"/>
-    <x:hyperlink ref="E11" r:id="rId273"/>
-    <x:hyperlink ref="E12" r:id="rId274"/>
-    <x:hyperlink ref="E13" r:id="rId275"/>
-    <x:hyperlink ref="E14" r:id="rId276"/>
-    <x:hyperlink ref="E15" r:id="rId277"/>
-    <x:hyperlink ref="E16" r:id="rId278"/>
-    <x:hyperlink ref="E17" r:id="rId279"/>
-    <x:hyperlink ref="E18" r:id="rId280"/>
-    <x:hyperlink ref="E19" r:id="rId281"/>
-    <x:hyperlink ref="E20" r:id="rId282"/>
-    <x:hyperlink ref="E21" r:id="rId283"/>
-    <x:hyperlink ref="E22" r:id="rId284"/>
-    <x:hyperlink ref="E24" r:id="rId285"/>
-    <x:hyperlink ref="E23" r:id="rId286"/>
-    <x:hyperlink ref="E25" r:id="rId287"/>
-    <x:hyperlink ref="E26" r:id="rId288"/>
-    <x:hyperlink ref="E27" r:id="rId289"/>
-    <x:hyperlink ref="E28" r:id="rId290"/>
-    <x:hyperlink ref="E29" r:id="rId291"/>
-    <x:hyperlink ref="E30" r:id="rId292"/>
-    <x:hyperlink ref="E31" r:id="rId293"/>
-    <x:hyperlink ref="E32" r:id="rId294"/>
-    <x:hyperlink ref="E33" r:id="rId295"/>
-    <x:hyperlink ref="E34" r:id="rId296"/>
-    <x:hyperlink ref="E35" r:id="rId297"/>
-    <x:hyperlink ref="E36" r:id="rId298"/>
-    <x:hyperlink ref="E37" r:id="rId299"/>
-    <x:hyperlink ref="E38" r:id="rId300"/>
-    <x:hyperlink ref="E39" r:id="rId301"/>
-    <x:hyperlink ref="E40" r:id="rId302"/>
-    <x:hyperlink ref="E41" r:id="rId303"/>
-    <x:hyperlink ref="E42" r:id="rId304"/>
-    <x:hyperlink ref="E43" r:id="rId305"/>
-    <x:hyperlink ref="E45" r:id="rId306"/>
-    <x:hyperlink ref="E44" r:id="rId307"/>
-    <x:hyperlink ref="E46" r:id="rId308"/>
-    <x:hyperlink ref="E47" r:id="rId309"/>
-    <x:hyperlink ref="E48" r:id="rId310"/>
-    <x:hyperlink ref="E49" r:id="rId311"/>
-    <x:hyperlink ref="E50" r:id="rId312"/>
+    <x:hyperlink ref="E3" r:id="rId259"/>
+    <x:hyperlink ref="E2" r:id="rId260"/>
+    <x:hyperlink ref="E4" r:id="rId261"/>
+    <x:hyperlink ref="E5" r:id="rId262"/>
+    <x:hyperlink ref="E6" r:id="rId263"/>
+    <x:hyperlink ref="E7" r:id="rId313"/>
+    <x:hyperlink ref="E8" r:id="rId314"/>
+    <x:hyperlink ref="E9" r:id="rId315"/>
+    <x:hyperlink ref="E10" r:id="rId316"/>
+    <x:hyperlink ref="E11" r:id="rId317"/>
+    <x:hyperlink ref="E12" r:id="rId318"/>
+    <x:hyperlink ref="E13" r:id="rId319"/>
+    <x:hyperlink ref="E14" r:id="rId320"/>
+    <x:hyperlink ref="E15" r:id="rId321"/>
+    <x:hyperlink ref="E16" r:id="rId322"/>
+    <x:hyperlink ref="E17" r:id="rId323"/>
+    <x:hyperlink ref="E18" r:id="rId324"/>
+    <x:hyperlink ref="E19" r:id="rId325"/>
+    <x:hyperlink ref="E20" r:id="rId326"/>
+    <x:hyperlink ref="E21" r:id="rId327"/>
+    <x:hyperlink ref="E22" r:id="rId328"/>
+    <x:hyperlink ref="E24" r:id="rId329"/>
+    <x:hyperlink ref="E23" r:id="rId330"/>
+    <x:hyperlink ref="E25" r:id="rId331"/>
+    <x:hyperlink ref="E26" r:id="rId332"/>
+    <x:hyperlink ref="E27" r:id="rId333"/>
+    <x:hyperlink ref="E28" r:id="rId334"/>
+    <x:hyperlink ref="E29" r:id="rId335"/>
+    <x:hyperlink ref="E30" r:id="rId336"/>
+    <x:hyperlink ref="E31" r:id="rId337"/>
+    <x:hyperlink ref="E32" r:id="rId338"/>
+    <x:hyperlink ref="E33" r:id="rId339"/>
+    <x:hyperlink ref="E34" r:id="rId340"/>
+    <x:hyperlink ref="E35" r:id="rId341"/>
+    <x:hyperlink ref="E36" r:id="rId342"/>
+    <x:hyperlink ref="E37" r:id="rId343"/>
+    <x:hyperlink ref="E38" r:id="rId344"/>
+    <x:hyperlink ref="E39" r:id="rId345"/>
+    <x:hyperlink ref="E40" r:id="rId346"/>
+    <x:hyperlink ref="E41" r:id="rId347"/>
+    <x:hyperlink ref="E42" r:id="rId348"/>
+    <x:hyperlink ref="E43" r:id="rId349"/>
+    <x:hyperlink ref="E45" r:id="rId350"/>
+    <x:hyperlink ref="E44" r:id="rId351"/>
+    <x:hyperlink ref="E46" r:id="rId352"/>
+    <x:hyperlink ref="E47" r:id="rId353"/>
+    <x:hyperlink ref="E48" r:id="rId354"/>
+    <x:hyperlink ref="E49" r:id="rId355"/>
+    <x:hyperlink ref="E50" r:id="rId356"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3830,122 +3807,44 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A4" s="0" t="n">
-        <x:v>1940</x:v>
+        <x:v>3162</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="n">
-        <x:v>2727</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="n">
-        <x:v>3095</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="n">
-        <x:v>3162</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
@@ -3963,7 +3862,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3997,33 +3896,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="18">
-        <x:v>42610</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2727</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D3" s="18">
-        <x:v>42610</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4040,7 +3919,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4065,42 +3944,22 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="n">
-        <x:v>1940</x:v>
+        <x:v>2727</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="18">
-        <x:v>42610</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2727</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D3" s="18">
-        <x:v>42610</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\TestData\EmpData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{245B0AA2-BD47-497D-AA11-83B81E1796E7}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="13_ncr:1_{1FBE3CB0-7496-4EEB-9BCC-EECCDFD20E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C72FB1-5C35-48F5-80C8-B903686C4ADF}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4872" yWindow="4872" windowWidth="2964" windowHeight="720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="8" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <x:sheet name="DOJ__Greetings" sheetId="6" r:id="rId5"/>
     <x:sheet name="DOW__Greetings" sheetId="7" r:id="rId6"/>
     <x:sheet name="EmpData" sheetId="4" r:id="rId7"/>
-    <x:sheet name="DOB_28_August" sheetId="11" r:id="rId11"/>
-    <x:sheet name="DOJ_28_August" sheetId="12" r:id="rId12"/>
-    <x:sheet name="DOW_28_August" sheetId="13" r:id="rId13"/>
+    <x:sheet name="DOB_29_August" sheetId="11" r:id="rId11"/>
+    <x:sheet name="DOJ_29_August" sheetId="12" r:id="rId12"/>
+    <x:sheet name="DOW_29_August" sheetId="13" r:id="rId13"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -226,25 +226,7 @@
     <x:t>EmpImageName</x:t>
   </x:si>
   <x:si>
-    <x:t>DOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOW</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SUCCESS  </x:t>
+    <x:t>FAILED :  Transaction is already Added into Queue,Please Check</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -716,8 +698,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A11" workbookViewId="0">
-      <x:selection activeCell="D21" sqref="D21"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <x:selection activeCell="H25" sqref="H25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -729,7 +711,7 @@
     <x:col min="5" max="5" width="43.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="15" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -746,7 +728,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -763,7 +745,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -780,7 +762,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5">
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -797,7 +779,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -814,7 +796,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -831,7 +813,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5">
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -848,7 +830,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5">
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -865,7 +847,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5">
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="11" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -882,7 +864,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="11" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -899,7 +881,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5">
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="11" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -916,7 +898,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5">
+    <x:row r="12" spans="1:8">
       <x:c r="A12" s="11" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -933,7 +915,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5">
+    <x:row r="13" spans="1:8">
       <x:c r="A13" s="11" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -950,7 +932,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
+    <x:row r="14" spans="1:8">
       <x:c r="A14" s="11" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -967,7 +949,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5">
+    <x:row r="15" spans="1:8">
       <x:c r="A15" s="11" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -984,7 +966,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5">
+    <x:row r="16" spans="1:8">
       <x:c r="A16" s="11" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -1001,7 +983,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5">
+    <x:row r="17" spans="1:8">
       <x:c r="A17" s="11" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -1018,7 +1000,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5">
+    <x:row r="18" spans="1:8">
       <x:c r="A18" s="11" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -1035,7 +1017,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5">
+    <x:row r="19" spans="1:8">
       <x:c r="A19" s="11" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -1052,7 +1034,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5">
+    <x:row r="20" spans="1:8">
       <x:c r="A20" s="11" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -1069,7 +1051,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5">
+    <x:row r="21" spans="1:8">
       <x:c r="A21" s="11" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -1080,13 +1062,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D21" s="9">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5">
+    <x:row r="22" spans="1:8">
       <x:c r="A22" s="11" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -1103,7 +1085,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5">
+    <x:row r="23" spans="1:8">
       <x:c r="A23" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -1120,7 +1102,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5">
+    <x:row r="24" spans="1:8">
       <x:c r="A24" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -1137,7 +1119,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:5">
+    <x:row r="25" spans="1:8">
       <x:c r="A25" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -1154,7 +1136,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:5">
+    <x:row r="26" spans="1:8">
       <x:c r="A26" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -1171,7 +1153,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:5">
+    <x:row r="27" spans="1:8">
       <x:c r="A27" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -1188,7 +1170,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:5">
+    <x:row r="28" spans="1:8">
       <x:c r="A28" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -1205,7 +1187,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:5">
+    <x:row r="29" spans="1:8">
       <x:c r="A29" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -1222,7 +1204,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:5">
+    <x:row r="30" spans="1:8">
       <x:c r="A30" s="11" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -1239,7 +1221,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:5">
+    <x:row r="31" spans="1:8">
       <x:c r="A31" s="11" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -1256,7 +1238,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:5">
+    <x:row r="32" spans="1:8">
       <x:c r="A32" s="11" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -1273,7 +1255,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:5">
+    <x:row r="33" spans="1:8">
       <x:c r="A33" s="11" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -1290,7 +1272,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:5">
+    <x:row r="34" spans="1:8">
       <x:c r="A34" s="11" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -1307,7 +1289,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:5">
+    <x:row r="35" spans="1:8">
       <x:c r="A35" s="11" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -1324,7 +1306,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:5">
+    <x:row r="36" spans="1:8">
       <x:c r="A36" s="11" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -1341,7 +1323,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:5">
+    <x:row r="37" spans="1:8">
       <x:c r="A37" s="11" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -1358,7 +1340,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:5">
+    <x:row r="38" spans="1:8">
       <x:c r="A38" s="11" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -1375,7 +1357,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:5">
+    <x:row r="39" spans="1:8">
       <x:c r="A39" s="11" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -1392,7 +1374,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:5">
+    <x:row r="40" spans="1:8">
       <x:c r="A40" s="11" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -1409,7 +1391,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:5">
+    <x:row r="41" spans="1:8">
       <x:c r="A41" s="11" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -1426,7 +1408,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:5">
+    <x:row r="42" spans="1:8">
       <x:c r="A42" s="11" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -1443,7 +1425,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:5">
+    <x:row r="43" spans="1:8">
       <x:c r="A43" s="11" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -1460,7 +1442,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:5">
+    <x:row r="44" spans="1:8">
       <x:c r="A44" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -1477,7 +1459,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:5">
+    <x:row r="45" spans="1:8">
       <x:c r="A45" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -1494,7 +1476,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:5">
+    <x:row r="46" spans="1:8">
       <x:c r="A46" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -1511,7 +1493,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:5">
+    <x:row r="47" spans="1:8">
       <x:c r="A47" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -1528,7 +1510,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:5">
+    <x:row r="48" spans="1:8">
       <x:c r="A48" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -1545,7 +1527,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:5">
+    <x:row r="49" spans="1:8">
       <x:c r="A49" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -1562,7 +1544,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:5">
+    <x:row r="50" spans="1:8">
       <x:c r="A50" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -1581,55 +1563,55 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId63"/>
-    <x:hyperlink ref="E2" r:id="rId64"/>
-    <x:hyperlink ref="E4" r:id="rId65"/>
-    <x:hyperlink ref="E5" r:id="rId66"/>
-    <x:hyperlink ref="E6" r:id="rId67"/>
-    <x:hyperlink ref="E7" r:id="rId117"/>
-    <x:hyperlink ref="E8" r:id="rId118"/>
-    <x:hyperlink ref="E9" r:id="rId119"/>
-    <x:hyperlink ref="E10" r:id="rId120"/>
-    <x:hyperlink ref="E11" r:id="rId121"/>
-    <x:hyperlink ref="E12" r:id="rId122"/>
-    <x:hyperlink ref="E13" r:id="rId123"/>
-    <x:hyperlink ref="E14" r:id="rId124"/>
-    <x:hyperlink ref="E15" r:id="rId125"/>
-    <x:hyperlink ref="E16" r:id="rId126"/>
-    <x:hyperlink ref="E17" r:id="rId127"/>
-    <x:hyperlink ref="E18" r:id="rId128"/>
-    <x:hyperlink ref="E19" r:id="rId129"/>
-    <x:hyperlink ref="E20" r:id="rId130"/>
-    <x:hyperlink ref="E21" r:id="rId131"/>
-    <x:hyperlink ref="E22" r:id="rId132"/>
-    <x:hyperlink ref="E24" r:id="rId133"/>
-    <x:hyperlink ref="E23" r:id="rId134"/>
-    <x:hyperlink ref="E25" r:id="rId135"/>
-    <x:hyperlink ref="E26" r:id="rId136"/>
-    <x:hyperlink ref="E27" r:id="rId137"/>
-    <x:hyperlink ref="E28" r:id="rId138"/>
-    <x:hyperlink ref="E29" r:id="rId139"/>
-    <x:hyperlink ref="E30" r:id="rId140"/>
-    <x:hyperlink ref="E31" r:id="rId141"/>
-    <x:hyperlink ref="E32" r:id="rId142"/>
-    <x:hyperlink ref="E33" r:id="rId143"/>
-    <x:hyperlink ref="E34" r:id="rId144"/>
-    <x:hyperlink ref="E35" r:id="rId145"/>
-    <x:hyperlink ref="E36" r:id="rId146"/>
-    <x:hyperlink ref="E37" r:id="rId147"/>
-    <x:hyperlink ref="E38" r:id="rId148"/>
-    <x:hyperlink ref="E39" r:id="rId149"/>
-    <x:hyperlink ref="E40" r:id="rId150"/>
-    <x:hyperlink ref="E41" r:id="rId151"/>
-    <x:hyperlink ref="E42" r:id="rId152"/>
-    <x:hyperlink ref="E43" r:id="rId153"/>
-    <x:hyperlink ref="E45" r:id="rId154"/>
-    <x:hyperlink ref="E44" r:id="rId155"/>
-    <x:hyperlink ref="E46" r:id="rId156"/>
-    <x:hyperlink ref="E47" r:id="rId157"/>
-    <x:hyperlink ref="E48" r:id="rId158"/>
-    <x:hyperlink ref="E49" r:id="rId159"/>
-    <x:hyperlink ref="E50" r:id="rId160"/>
+    <x:hyperlink ref="E3" r:id="rId68"/>
+    <x:hyperlink ref="E2" r:id="rId69"/>
+    <x:hyperlink ref="E4" r:id="rId70"/>
+    <x:hyperlink ref="E5" r:id="rId71"/>
+    <x:hyperlink ref="E6" r:id="rId72"/>
+    <x:hyperlink ref="E7" r:id="rId73"/>
+    <x:hyperlink ref="E8" r:id="rId74"/>
+    <x:hyperlink ref="E9" r:id="rId75"/>
+    <x:hyperlink ref="E10" r:id="rId76"/>
+    <x:hyperlink ref="E11" r:id="rId77"/>
+    <x:hyperlink ref="E12" r:id="rId78"/>
+    <x:hyperlink ref="E13" r:id="rId79"/>
+    <x:hyperlink ref="E14" r:id="rId80"/>
+    <x:hyperlink ref="E15" r:id="rId81"/>
+    <x:hyperlink ref="E16" r:id="rId82"/>
+    <x:hyperlink ref="E17" r:id="rId83"/>
+    <x:hyperlink ref="E18" r:id="rId84"/>
+    <x:hyperlink ref="E19" r:id="rId85"/>
+    <x:hyperlink ref="E20" r:id="rId86"/>
+    <x:hyperlink ref="E21" r:id="rId87"/>
+    <x:hyperlink ref="E22" r:id="rId88"/>
+    <x:hyperlink ref="E24" r:id="rId89"/>
+    <x:hyperlink ref="E23" r:id="rId90"/>
+    <x:hyperlink ref="E25" r:id="rId91"/>
+    <x:hyperlink ref="E26" r:id="rId92"/>
+    <x:hyperlink ref="E27" r:id="rId93"/>
+    <x:hyperlink ref="E28" r:id="rId94"/>
+    <x:hyperlink ref="E29" r:id="rId95"/>
+    <x:hyperlink ref="E30" r:id="rId96"/>
+    <x:hyperlink ref="E31" r:id="rId97"/>
+    <x:hyperlink ref="E32" r:id="rId98"/>
+    <x:hyperlink ref="E33" r:id="rId99"/>
+    <x:hyperlink ref="E34" r:id="rId100"/>
+    <x:hyperlink ref="E35" r:id="rId101"/>
+    <x:hyperlink ref="E36" r:id="rId102"/>
+    <x:hyperlink ref="E37" r:id="rId103"/>
+    <x:hyperlink ref="E38" r:id="rId104"/>
+    <x:hyperlink ref="E39" r:id="rId105"/>
+    <x:hyperlink ref="E40" r:id="rId106"/>
+    <x:hyperlink ref="E41" r:id="rId107"/>
+    <x:hyperlink ref="E42" r:id="rId108"/>
+    <x:hyperlink ref="E43" r:id="rId109"/>
+    <x:hyperlink ref="E45" r:id="rId110"/>
+    <x:hyperlink ref="E44" r:id="rId111"/>
+    <x:hyperlink ref="E46" r:id="rId112"/>
+    <x:hyperlink ref="E47" r:id="rId113"/>
+    <x:hyperlink ref="E48" r:id="rId114"/>
+    <x:hyperlink ref="E49" r:id="rId115"/>
+    <x:hyperlink ref="E50" r:id="rId116"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,13 +1660,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="18">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1703,7 +1685,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A26" workbookViewId="0">
+    <x:sheetView topLeftCell="A31" workbookViewId="0">
       <x:selection activeCell="D43" sqref="D43"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2441,7 +2423,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" s="9">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E43" s="7" t="s">
         <x:v>7</x:v>
@@ -2568,55 +2550,55 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId166"/>
-    <x:hyperlink ref="E2" r:id="rId167"/>
-    <x:hyperlink ref="E4" r:id="rId168"/>
-    <x:hyperlink ref="E5" r:id="rId169"/>
-    <x:hyperlink ref="E6" r:id="rId170"/>
-    <x:hyperlink ref="E7" r:id="rId171"/>
-    <x:hyperlink ref="E8" r:id="rId172"/>
-    <x:hyperlink ref="E9" r:id="rId173"/>
-    <x:hyperlink ref="E10" r:id="rId174"/>
-    <x:hyperlink ref="E11" r:id="rId175"/>
-    <x:hyperlink ref="E12" r:id="rId176"/>
-    <x:hyperlink ref="E13" r:id="rId177"/>
-    <x:hyperlink ref="E14" r:id="rId178"/>
-    <x:hyperlink ref="E15" r:id="rId179"/>
-    <x:hyperlink ref="E16" r:id="rId180"/>
-    <x:hyperlink ref="E17" r:id="rId181"/>
-    <x:hyperlink ref="E18" r:id="rId182"/>
-    <x:hyperlink ref="E19" r:id="rId183"/>
-    <x:hyperlink ref="E20" r:id="rId184"/>
-    <x:hyperlink ref="E21" r:id="rId185"/>
-    <x:hyperlink ref="E22" r:id="rId186"/>
-    <x:hyperlink ref="E24" r:id="rId187"/>
-    <x:hyperlink ref="E23" r:id="rId188"/>
-    <x:hyperlink ref="E25" r:id="rId189"/>
-    <x:hyperlink ref="E26" r:id="rId190"/>
-    <x:hyperlink ref="E27" r:id="rId191"/>
-    <x:hyperlink ref="E28" r:id="rId192"/>
-    <x:hyperlink ref="E29" r:id="rId193"/>
-    <x:hyperlink ref="E30" r:id="rId194"/>
-    <x:hyperlink ref="E31" r:id="rId195"/>
-    <x:hyperlink ref="E32" r:id="rId196"/>
-    <x:hyperlink ref="E33" r:id="rId197"/>
-    <x:hyperlink ref="E34" r:id="rId198"/>
-    <x:hyperlink ref="E35" r:id="rId199"/>
-    <x:hyperlink ref="E36" r:id="rId200"/>
-    <x:hyperlink ref="E37" r:id="rId201"/>
-    <x:hyperlink ref="E38" r:id="rId202"/>
-    <x:hyperlink ref="E39" r:id="rId203"/>
-    <x:hyperlink ref="E40" r:id="rId204"/>
-    <x:hyperlink ref="E41" r:id="rId205"/>
-    <x:hyperlink ref="E42" r:id="rId206"/>
-    <x:hyperlink ref="E43" r:id="rId207"/>
-    <x:hyperlink ref="E45" r:id="rId208"/>
-    <x:hyperlink ref="E44" r:id="rId209"/>
-    <x:hyperlink ref="E46" r:id="rId210"/>
-    <x:hyperlink ref="E47" r:id="rId211"/>
-    <x:hyperlink ref="E48" r:id="rId212"/>
-    <x:hyperlink ref="E49" r:id="rId213"/>
-    <x:hyperlink ref="E50" r:id="rId214"/>
+    <x:hyperlink ref="E3" r:id="rId161"/>
+    <x:hyperlink ref="E2" r:id="rId162"/>
+    <x:hyperlink ref="E4" r:id="rId163"/>
+    <x:hyperlink ref="E5" r:id="rId164"/>
+    <x:hyperlink ref="E6" r:id="rId165"/>
+    <x:hyperlink ref="E7" r:id="rId215"/>
+    <x:hyperlink ref="E8" r:id="rId216"/>
+    <x:hyperlink ref="E9" r:id="rId217"/>
+    <x:hyperlink ref="E10" r:id="rId218"/>
+    <x:hyperlink ref="E11" r:id="rId219"/>
+    <x:hyperlink ref="E12" r:id="rId220"/>
+    <x:hyperlink ref="E13" r:id="rId221"/>
+    <x:hyperlink ref="E14" r:id="rId222"/>
+    <x:hyperlink ref="E15" r:id="rId223"/>
+    <x:hyperlink ref="E16" r:id="rId224"/>
+    <x:hyperlink ref="E17" r:id="rId225"/>
+    <x:hyperlink ref="E18" r:id="rId226"/>
+    <x:hyperlink ref="E19" r:id="rId227"/>
+    <x:hyperlink ref="E20" r:id="rId228"/>
+    <x:hyperlink ref="E21" r:id="rId229"/>
+    <x:hyperlink ref="E22" r:id="rId230"/>
+    <x:hyperlink ref="E24" r:id="rId231"/>
+    <x:hyperlink ref="E23" r:id="rId232"/>
+    <x:hyperlink ref="E25" r:id="rId233"/>
+    <x:hyperlink ref="E26" r:id="rId234"/>
+    <x:hyperlink ref="E27" r:id="rId235"/>
+    <x:hyperlink ref="E28" r:id="rId236"/>
+    <x:hyperlink ref="E29" r:id="rId237"/>
+    <x:hyperlink ref="E30" r:id="rId238"/>
+    <x:hyperlink ref="E31" r:id="rId239"/>
+    <x:hyperlink ref="E32" r:id="rId240"/>
+    <x:hyperlink ref="E33" r:id="rId241"/>
+    <x:hyperlink ref="E34" r:id="rId242"/>
+    <x:hyperlink ref="E35" r:id="rId243"/>
+    <x:hyperlink ref="E36" r:id="rId244"/>
+    <x:hyperlink ref="E37" r:id="rId245"/>
+    <x:hyperlink ref="E38" r:id="rId246"/>
+    <x:hyperlink ref="E39" r:id="rId247"/>
+    <x:hyperlink ref="E40" r:id="rId248"/>
+    <x:hyperlink ref="E41" r:id="rId249"/>
+    <x:hyperlink ref="E42" r:id="rId250"/>
+    <x:hyperlink ref="E43" r:id="rId251"/>
+    <x:hyperlink ref="E45" r:id="rId252"/>
+    <x:hyperlink ref="E44" r:id="rId253"/>
+    <x:hyperlink ref="E46" r:id="rId254"/>
+    <x:hyperlink ref="E47" r:id="rId255"/>
+    <x:hyperlink ref="E48" r:id="rId256"/>
+    <x:hyperlink ref="E49" r:id="rId257"/>
+    <x:hyperlink ref="E50" r:id="rId258"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2633,8 +2615,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <x:selection activeCell="K46" sqref="K46"/>
+    <x:sheetView topLeftCell="A37" workbookViewId="0">
+      <x:selection activeCell="D50" sqref="D50"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -2646,7 +2628,7 @@
     <x:col min="5" max="5" width="37" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="15" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -2663,7 +2645,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11">
+    <x:row r="2" spans="1:5">
       <x:c r="A2" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -2680,7 +2662,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11">
+    <x:row r="3" spans="1:5">
       <x:c r="A3" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -2697,7 +2679,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:5">
       <x:c r="A4" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -2714,7 +2696,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:5">
       <x:c r="A5" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -2731,7 +2713,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:5">
       <x:c r="A6" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -2748,7 +2730,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:5">
       <x:c r="A7" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -2765,7 +2747,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:5">
       <x:c r="A8" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -2782,7 +2764,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11">
+    <x:row r="9" spans="1:5">
       <x:c r="A9" s="11" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -2799,7 +2781,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
+    <x:row r="10" spans="1:5">
       <x:c r="A10" s="11" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -2816,7 +2798,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11">
+    <x:row r="11" spans="1:5">
       <x:c r="A11" s="11" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -2833,7 +2815,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:11">
+    <x:row r="12" spans="1:5">
       <x:c r="A12" s="11" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -2850,7 +2832,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11">
+    <x:row r="13" spans="1:5">
       <x:c r="A13" s="11" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -2867,7 +2849,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:11">
+    <x:row r="14" spans="1:5">
       <x:c r="A14" s="11" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -2884,7 +2866,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11">
+    <x:row r="15" spans="1:5">
       <x:c r="A15" s="11" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -2901,7 +2883,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:11">
+    <x:row r="16" spans="1:5">
       <x:c r="A16" s="11" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -2918,7 +2900,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:5">
       <x:c r="A17" s="11" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -2935,7 +2917,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11">
+    <x:row r="18" spans="1:5">
       <x:c r="A18" s="11" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -2952,7 +2934,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:11">
+    <x:row r="19" spans="1:5">
       <x:c r="A19" s="11" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -2969,7 +2951,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:11">
+    <x:row r="20" spans="1:5">
       <x:c r="A20" s="11" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -2986,7 +2968,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11">
+    <x:row r="21" spans="1:5">
       <x:c r="A21" s="11" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -3003,7 +2985,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:11">
+    <x:row r="22" spans="1:5">
       <x:c r="A22" s="11" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -3020,7 +3002,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11">
+    <x:row r="23" spans="1:5">
       <x:c r="A23" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -3037,7 +3019,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:11">
+    <x:row r="24" spans="1:5">
       <x:c r="A24" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -3054,7 +3036,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:11">
+    <x:row r="25" spans="1:5">
       <x:c r="A25" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -3071,7 +3053,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:11">
+    <x:row r="26" spans="1:5">
       <x:c r="A26" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -3088,7 +3070,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:11">
+    <x:row r="27" spans="1:5">
       <x:c r="A27" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -3105,7 +3087,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:11">
+    <x:row r="28" spans="1:5">
       <x:c r="A28" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -3122,7 +3104,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:11">
+    <x:row r="29" spans="1:5">
       <x:c r="A29" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -3139,7 +3121,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:11">
+    <x:row r="30" spans="1:5">
       <x:c r="A30" s="11" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -3156,7 +3138,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:11">
+    <x:row r="31" spans="1:5">
       <x:c r="A31" s="11" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -3173,7 +3155,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:11">
+    <x:row r="32" spans="1:5">
       <x:c r="A32" s="11" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -3190,7 +3172,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:11">
+    <x:row r="33" spans="1:5">
       <x:c r="A33" s="11" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -3207,7 +3189,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:11">
+    <x:row r="34" spans="1:5">
       <x:c r="A34" s="11" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -3224,7 +3206,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:11">
+    <x:row r="35" spans="1:5">
       <x:c r="A35" s="11" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -3241,7 +3223,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:11">
+    <x:row r="36" spans="1:5">
       <x:c r="A36" s="11" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -3258,7 +3240,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:11">
+    <x:row r="37" spans="1:5">
       <x:c r="A37" s="11" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -3275,7 +3257,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:11">
+    <x:row r="38" spans="1:5">
       <x:c r="A38" s="11" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -3292,7 +3274,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:11">
+    <x:row r="39" spans="1:5">
       <x:c r="A39" s="11" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -3309,7 +3291,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:11">
+    <x:row r="40" spans="1:5">
       <x:c r="A40" s="11" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -3326,7 +3308,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:11">
+    <x:row r="41" spans="1:5">
       <x:c r="A41" s="11" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -3343,7 +3325,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:11">
+    <x:row r="42" spans="1:5">
       <x:c r="A42" s="11" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -3360,7 +3342,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:11">
+    <x:row r="43" spans="1:5">
       <x:c r="A43" s="11" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -3377,7 +3359,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:11">
+    <x:row r="44" spans="1:5">
       <x:c r="A44" s="11" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -3394,7 +3376,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:11">
+    <x:row r="45" spans="1:5">
       <x:c r="A45" s="11" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -3411,7 +3393,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:11">
+    <x:row r="46" spans="1:5">
       <x:c r="A46" s="11" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -3428,7 +3410,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:11">
+    <x:row r="47" spans="1:5">
       <x:c r="A47" s="11" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -3445,7 +3427,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:11">
+    <x:row r="48" spans="1:5">
       <x:c r="A48" s="11" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -3462,7 +3444,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:11">
+    <x:row r="49" spans="1:5">
       <x:c r="A49" s="11" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -3479,7 +3461,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:11">
+    <x:row r="50" spans="1:5">
       <x:c r="A50" s="11" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -3490,7 +3472,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D50" s="9">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E50" s="7" t="s">
         <x:v>7</x:v>
@@ -3498,55 +3480,55 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3" r:id="rId259"/>
-    <x:hyperlink ref="E2" r:id="rId260"/>
-    <x:hyperlink ref="E4" r:id="rId261"/>
-    <x:hyperlink ref="E5" r:id="rId262"/>
-    <x:hyperlink ref="E6" r:id="rId263"/>
-    <x:hyperlink ref="E7" r:id="rId313"/>
-    <x:hyperlink ref="E8" r:id="rId314"/>
-    <x:hyperlink ref="E9" r:id="rId315"/>
-    <x:hyperlink ref="E10" r:id="rId316"/>
-    <x:hyperlink ref="E11" r:id="rId317"/>
-    <x:hyperlink ref="E12" r:id="rId318"/>
-    <x:hyperlink ref="E13" r:id="rId319"/>
-    <x:hyperlink ref="E14" r:id="rId320"/>
-    <x:hyperlink ref="E15" r:id="rId321"/>
-    <x:hyperlink ref="E16" r:id="rId322"/>
-    <x:hyperlink ref="E17" r:id="rId323"/>
-    <x:hyperlink ref="E18" r:id="rId324"/>
-    <x:hyperlink ref="E19" r:id="rId325"/>
-    <x:hyperlink ref="E20" r:id="rId326"/>
-    <x:hyperlink ref="E21" r:id="rId327"/>
-    <x:hyperlink ref="E22" r:id="rId328"/>
-    <x:hyperlink ref="E24" r:id="rId329"/>
-    <x:hyperlink ref="E23" r:id="rId330"/>
-    <x:hyperlink ref="E25" r:id="rId331"/>
-    <x:hyperlink ref="E26" r:id="rId332"/>
-    <x:hyperlink ref="E27" r:id="rId333"/>
-    <x:hyperlink ref="E28" r:id="rId334"/>
-    <x:hyperlink ref="E29" r:id="rId335"/>
-    <x:hyperlink ref="E30" r:id="rId336"/>
-    <x:hyperlink ref="E31" r:id="rId337"/>
-    <x:hyperlink ref="E32" r:id="rId338"/>
-    <x:hyperlink ref="E33" r:id="rId339"/>
-    <x:hyperlink ref="E34" r:id="rId340"/>
-    <x:hyperlink ref="E35" r:id="rId341"/>
-    <x:hyperlink ref="E36" r:id="rId342"/>
-    <x:hyperlink ref="E37" r:id="rId343"/>
-    <x:hyperlink ref="E38" r:id="rId344"/>
-    <x:hyperlink ref="E39" r:id="rId345"/>
-    <x:hyperlink ref="E40" r:id="rId346"/>
-    <x:hyperlink ref="E41" r:id="rId347"/>
-    <x:hyperlink ref="E42" r:id="rId348"/>
-    <x:hyperlink ref="E43" r:id="rId349"/>
-    <x:hyperlink ref="E45" r:id="rId350"/>
-    <x:hyperlink ref="E44" r:id="rId351"/>
-    <x:hyperlink ref="E46" r:id="rId352"/>
-    <x:hyperlink ref="E47" r:id="rId353"/>
-    <x:hyperlink ref="E48" r:id="rId354"/>
-    <x:hyperlink ref="E49" r:id="rId355"/>
-    <x:hyperlink ref="E50" r:id="rId356"/>
+    <x:hyperlink ref="E3" r:id="rId264"/>
+    <x:hyperlink ref="E2" r:id="rId265"/>
+    <x:hyperlink ref="E4" r:id="rId266"/>
+    <x:hyperlink ref="E5" r:id="rId267"/>
+    <x:hyperlink ref="E6" r:id="rId268"/>
+    <x:hyperlink ref="E7" r:id="rId269"/>
+    <x:hyperlink ref="E8" r:id="rId270"/>
+    <x:hyperlink ref="E9" r:id="rId271"/>
+    <x:hyperlink ref="E10" r:id="rId272"/>
+    <x:hyperlink ref="E11" r:id="rId273"/>
+    <x:hyperlink ref="E12" r:id="rId274"/>
+    <x:hyperlink ref="E13" r:id="rId275"/>
+    <x:hyperlink ref="E14" r:id="rId276"/>
+    <x:hyperlink ref="E15" r:id="rId277"/>
+    <x:hyperlink ref="E16" r:id="rId278"/>
+    <x:hyperlink ref="E17" r:id="rId279"/>
+    <x:hyperlink ref="E18" r:id="rId280"/>
+    <x:hyperlink ref="E19" r:id="rId281"/>
+    <x:hyperlink ref="E20" r:id="rId282"/>
+    <x:hyperlink ref="E21" r:id="rId283"/>
+    <x:hyperlink ref="E22" r:id="rId284"/>
+    <x:hyperlink ref="E24" r:id="rId285"/>
+    <x:hyperlink ref="E23" r:id="rId286"/>
+    <x:hyperlink ref="E25" r:id="rId287"/>
+    <x:hyperlink ref="E26" r:id="rId288"/>
+    <x:hyperlink ref="E27" r:id="rId289"/>
+    <x:hyperlink ref="E28" r:id="rId290"/>
+    <x:hyperlink ref="E29" r:id="rId291"/>
+    <x:hyperlink ref="E30" r:id="rId292"/>
+    <x:hyperlink ref="E31" r:id="rId293"/>
+    <x:hyperlink ref="E32" r:id="rId294"/>
+    <x:hyperlink ref="E33" r:id="rId295"/>
+    <x:hyperlink ref="E34" r:id="rId296"/>
+    <x:hyperlink ref="E35" r:id="rId297"/>
+    <x:hyperlink ref="E36" r:id="rId298"/>
+    <x:hyperlink ref="E37" r:id="rId299"/>
+    <x:hyperlink ref="E38" r:id="rId300"/>
+    <x:hyperlink ref="E39" r:id="rId301"/>
+    <x:hyperlink ref="E40" r:id="rId302"/>
+    <x:hyperlink ref="E41" r:id="rId303"/>
+    <x:hyperlink ref="E42" r:id="rId304"/>
+    <x:hyperlink ref="E43" r:id="rId305"/>
+    <x:hyperlink ref="E45" r:id="rId306"/>
+    <x:hyperlink ref="E44" r:id="rId307"/>
+    <x:hyperlink ref="E46" r:id="rId308"/>
+    <x:hyperlink ref="E47" r:id="rId309"/>
+    <x:hyperlink ref="E48" r:id="rId310"/>
+    <x:hyperlink ref="E49" r:id="rId311"/>
+    <x:hyperlink ref="E50" r:id="rId312"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3770,84 +3752,7 @@
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1940</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2727</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A4" s="0" t="n">
-        <x:v>3162</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3896,13 +3801,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="18">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3953,13 +3858,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="18">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
+++ b/HR-GreetingsCardsData/EmpDetails/EmpDetails.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Dispatcher-Process\HR-GreetingsCardsData\EmpDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E07F8A0-BAC1-4098-8C0B-63673BE1DD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3E5C2-806C-4EF7-BC08-0D27EDF3FD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="DOB" sheetId="8" r:id="rId1"/>
@@ -20,25 +20,36 @@
     <x:sheet name="DOJ__Greetings" sheetId="6" r:id="rId5"/>
     <x:sheet name="DOW__Greetings" sheetId="7" r:id="rId6"/>
     <x:sheet name="EmpData" sheetId="4" r:id="rId7"/>
-    <x:sheet name="DOB_28_August" sheetId="11" r:id="rId8"/>
-    <x:sheet name="DOJ_28_August" sheetId="12" r:id="rId9"/>
-    <x:sheet name="DOW_28_August" sheetId="13" r:id="rId10"/>
-    <x:sheet name="DOB_3_September" sheetId="14" r:id="rId14"/>
-    <x:sheet name="DOJ_3_September" sheetId="15" r:id="rId15"/>
-    <x:sheet name="DOW_3_September" sheetId="16" r:id="rId16"/>
+    <x:sheet name="DOB_4_September" sheetId="11" r:id="rId8"/>
+    <x:sheet name="DOJ_4_September" sheetId="12" r:id="rId9"/>
+    <x:sheet name="DOW_4_September" sheetId="13" r:id="rId10"/>
+    <x:sheet name="DOB_5_September" sheetId="14" r:id="rId14"/>
+    <x:sheet name="DOJ_5_September" sheetId="15" r:id="rId15"/>
+    <x:sheet name="DOW_5_September" sheetId="16" r:id="rId16"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="181029"/>
+  <x:calcPr calcId="191028"/>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </x:ext>
   </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>EmpID</x:t>
   </x:si>
@@ -149,6 +160,18 @@
   </x:si>
   <x:si>
     <x:t>Karanbir Kaur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shelly Singla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saravyot Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shikha Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suraj Ashok Kadav</x:t>
   </x:si>
   <x:si>
     <x:t>DOB_WishesName</x:t>
@@ -227,16 +250,28 @@
     <x:t>DOJ</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3162</x:t>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3027</x:t>
   </x:si>
   <x:si>
     <x:t>DOW</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">SUCCESS  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAILED :  Transaction is already Added into Queue,Please Check</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -246,7 +281,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -276,13 +311,6 @@
       <x:family val="2"/>
       <x:scheme val="minor"/>
     </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -298,7 +326,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="5">
+  <x:borders count="4">
     <x:border>
       <x:left/>
       <x:right/>
@@ -349,19 +377,8 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border>
-      <x:left/>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top/>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -379,9 +396,6 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -389,7 +403,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="17">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
@@ -416,17 +430,12 @@
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <x:xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -718,8 +727,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A34" workbookViewId="0">
-      <x:selection activeCell="H42" sqref="H42"/>
+    <x:sheetView topLeftCell="A36" workbookViewId="0">
+      <x:selection activeCell="D37" sqref="D37 D37:D50"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,24 +740,24 @@
     <x:col min="5" max="5" width="43.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="13" t="s">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="12" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="13" t="s">
+      <x:c r="B1" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="13" t="s">
+      <x:c r="C1" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="14" t="s">
+      <x:c r="D1" s="13" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="13" t="s">
+      <x:c r="E1" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A2" s="9" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -765,7 +774,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A3" s="9" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -782,7 +791,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A4" s="9" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -799,7 +808,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A5" s="9" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -816,7 +825,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A6" s="9" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -833,7 +842,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -850,7 +859,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A8" s="9" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -867,7 +876,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A9" s="9" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -884,7 +893,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A10" s="9" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -901,7 +910,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -918,7 +927,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A12" s="9" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -935,7 +944,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A13" s="9" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -952,7 +961,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A14" s="9" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -969,7 +978,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A15" s="9" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -986,7 +995,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A16" s="9" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -1003,7 +1012,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A17" s="9" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -1020,7 +1029,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A18" s="9" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -1037,7 +1046,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -1054,7 +1063,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A20" s="9" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -1071,7 +1080,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A21" s="9" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -1082,13 +1091,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D21" s="8">
-        <x:v>42611</x:v>
+        <x:v>42612</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A22" s="9" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -1105,7 +1114,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -1122,7 +1131,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A24" s="9" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -1139,7 +1148,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A25" s="9" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -1156,7 +1165,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A26" s="9" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -1173,7 +1182,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A27" s="9" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -1190,7 +1199,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -1207,7 +1216,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A29" s="9" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -1224,7 +1233,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A30" s="9" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -1241,7 +1250,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A31" s="9" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -1258,7 +1267,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A32" s="9" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -1275,7 +1284,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A33" s="9" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -1292,7 +1301,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A34" s="9" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -1309,7 +1318,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A35" s="9" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -1326,7 +1335,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A36" s="9" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -1343,7 +1352,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A37" s="9" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -1354,13 +1363,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D37" s="8">
-        <x:v>42555</x:v>
+        <x:v>44078</x:v>
       </x:c>
       <x:c r="E37" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A38" s="9" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -1371,13 +1380,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D38" s="8">
-        <x:v>42191</x:v>
+        <x:v>44079</x:v>
       </x:c>
       <x:c r="E38" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A39" s="9" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -1388,13 +1397,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D39" s="8">
-        <x:v>43322</x:v>
+        <x:v>44080</x:v>
       </x:c>
       <x:c r="E39" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A40" s="9" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -1405,47 +1414,47 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D40" s="8">
-        <x:v>42957</x:v>
+        <x:v>44081</x:v>
       </x:c>
       <x:c r="E40" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A41" s="9" t="n">
-        <x:v>3029</x:v>
+        <x:v>2865</x:v>
       </x:c>
       <x:c r="B41" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C41" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="8">
-        <x:v>42597</x:v>
+        <x:v>44082</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A42" s="9" t="n">
-        <x:v>1940</x:v>
+        <x:v>3110</x:v>
       </x:c>
       <x:c r="B42" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C42" s="9" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D42" s="8">
-        <x:v>42603</x:v>
+        <x:v>44083</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A43" s="9" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -1456,13 +1465,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" s="8">
-        <x:v>42603</x:v>
+        <x:v>44084</x:v>
       </x:c>
       <x:c r="E43" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -1473,13 +1482,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D44" s="8">
-        <x:v>40360</x:v>
+        <x:v>44085</x:v>
       </x:c>
       <x:c r="E44" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A45" s="9" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -1490,13 +1499,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D45" s="8">
-        <x:v>40725</x:v>
+        <x:v>44086</x:v>
       </x:c>
       <x:c r="E45" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A46" s="9" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -1507,13 +1516,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="8">
-        <x:v>42186</x:v>
+        <x:v>44087</x:v>
       </x:c>
       <x:c r="E46" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A47" s="9" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -1524,30 +1533,30 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D47" s="8">
-        <x:v>42552</x:v>
+        <x:v>44088</x:v>
       </x:c>
       <x:c r="E47" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A48" s="9" t="n">
-        <x:v>2679</x:v>
+        <x:v>3503</x:v>
       </x:c>
       <x:c r="B48" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C48" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D48" s="8">
-        <x:v>42552</x:v>
+        <x:v>44089</x:v>
       </x:c>
       <x:c r="E48" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A49" s="9" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -1558,13 +1567,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D49" s="8">
-        <x:v>43647</x:v>
+        <x:v>44090</x:v>
       </x:c>
       <x:c r="E49" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A50" s="9" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -1574,8 +1583,8 @@
       <x:c r="C50" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D50" s="15">
-        <x:v>45173</x:v>
+      <x:c r="D50" s="8">
+        <x:v>44091</x:v>
       </x:c>
       <x:c r="E50" s="7" t="s">
         <x:v>7</x:v>
@@ -1671,22 +1680,22 @@
     </x:row>
     <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>2567</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="11">
-        <x:v>42611</x:v>
+        <x:v>44079</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1728,22 +1737,22 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>3027</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="11">
-        <x:v>45173</x:v>
+        <x:v>44080</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1760,7 +1769,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:E6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1785,22 +1794,102 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>3022</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="11">
-        <x:v>45173</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="n">
+        <x:v>3827</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D3" s="11">
+        <x:v>44810</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="n">
+        <x:v>2713</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="11">
+        <x:v>44810</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="n">
+        <x:v>2567</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="11">
+        <x:v>44810</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="11">
+        <x:v>44810</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1842,22 +1931,22 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>3027</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="11">
-        <x:v>45173</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1876,8 +1965,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A38" workbookViewId="0">
-      <x:selection activeCell="D50" sqref="D50"/>
+    <x:sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <x:selection activeCell="J17" sqref="J17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,24 +1978,24 @@
     <x:col min="5" max="5" width="44.855469" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="13" t="s">
+    <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="12" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="13" t="s">
+      <x:c r="B1" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="13" t="s">
+      <x:c r="C1" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="14" t="s">
+      <x:c r="D1" s="13" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="13" t="s">
+      <x:c r="E1" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A2" s="9" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -1923,7 +2012,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A3" s="9" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -1940,7 +2029,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A4" s="9" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -1957,7 +2046,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A5" s="9" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -1974,7 +2063,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A6" s="9" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -1991,7 +2080,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -2008,7 +2097,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A8" s="9" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -2025,7 +2114,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A9" s="9" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -2042,7 +2131,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A10" s="9" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -2059,7 +2148,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -2076,7 +2165,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A12" s="9" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -2093,7 +2182,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A13" s="9" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -2110,7 +2199,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A14" s="9" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -2121,13 +2210,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D14" s="8">
-        <x:v>43649</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A15" s="9" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -2138,13 +2227,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D15" s="8">
-        <x:v>45110</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A16" s="9" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -2155,13 +2244,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="8">
-        <x:v>42555</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A17" s="9" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -2172,13 +2261,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="8">
-        <x:v>42191</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A18" s="9" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -2195,7 +2284,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -2212,7 +2301,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A20" s="9" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -2229,7 +2318,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A21" s="9" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -2246,7 +2335,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A22" s="9" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -2263,7 +2352,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -2280,7 +2369,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A24" s="9" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -2297,7 +2386,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A25" s="9" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -2314,7 +2403,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A26" s="9" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -2331,7 +2420,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A27" s="9" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -2348,7 +2437,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -2365,7 +2454,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A29" s="9" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -2382,7 +2471,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A30" s="9" t="n">
         <x:v>3376</x:v>
       </x:c>
@@ -2399,7 +2488,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A31" s="9" t="n">
         <x:v>3384</x:v>
       </x:c>
@@ -2416,7 +2505,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A32" s="9" t="n">
         <x:v>3385</x:v>
       </x:c>
@@ -2433,7 +2522,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A33" s="9" t="n">
         <x:v>2889</x:v>
       </x:c>
@@ -2450,7 +2539,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A34" s="9" t="n">
         <x:v>2935</x:v>
       </x:c>
@@ -2467,7 +2556,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A35" s="9" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -2484,7 +2573,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A36" s="9" t="n">
         <x:v>3827</x:v>
       </x:c>
@@ -2501,7 +2590,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A37" s="9" t="n">
         <x:v>2713</x:v>
       </x:c>
@@ -2512,13 +2601,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D37" s="8">
-        <x:v>42555</x:v>
+        <x:v>44078</x:v>
       </x:c>
       <x:c r="E37" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A38" s="9" t="n">
         <x:v>2567</x:v>
       </x:c>
@@ -2529,13 +2618,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D38" s="8">
-        <x:v>42191</x:v>
+        <x:v>44079</x:v>
       </x:c>
       <x:c r="E38" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A39" s="9" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -2546,13 +2635,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D39" s="8">
-        <x:v>43322</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E39" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A40" s="9" t="n">
         <x:v>3618</x:v>
       </x:c>
@@ -2563,13 +2652,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D40" s="8">
-        <x:v>42957</x:v>
+        <x:v>44081</x:v>
       </x:c>
       <x:c r="E40" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A41" s="9" t="n">
         <x:v>3029</x:v>
       </x:c>
@@ -2580,13 +2669,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D41" s="8">
-        <x:v>42597</x:v>
+        <x:v>41160</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A42" s="9" t="n">
         <x:v>1940</x:v>
       </x:c>
@@ -2597,13 +2686,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D42" s="8">
-        <x:v>42610</x:v>
+        <x:v>44083</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A43" s="9" t="n">
         <x:v>2727</x:v>
       </x:c>
@@ -2614,13 +2703,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" s="8">
-        <x:v>42611</x:v>
+        <x:v>41892</x:v>
       </x:c>
       <x:c r="E43" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="n">
         <x:v>1764</x:v>
       </x:c>
@@ -2631,13 +2720,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D44" s="8">
-        <x:v>40360</x:v>
+        <x:v>44085</x:v>
       </x:c>
       <x:c r="E44" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A45" s="9" t="n">
         <x:v>1939</x:v>
       </x:c>
@@ -2648,13 +2737,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D45" s="8">
-        <x:v>40725</x:v>
+        <x:v>42625</x:v>
       </x:c>
       <x:c r="E45" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A46" s="9" t="n">
         <x:v>2549</x:v>
       </x:c>
@@ -2665,13 +2754,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="8">
-        <x:v>42186</x:v>
+        <x:v>44087</x:v>
       </x:c>
       <x:c r="E46" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A47" s="9" t="n">
         <x:v>2678</x:v>
       </x:c>
@@ -2682,13 +2771,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D47" s="8">
-        <x:v>42552</x:v>
+        <x:v>43357</x:v>
       </x:c>
       <x:c r="E47" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A48" s="9" t="n">
         <x:v>2679</x:v>
       </x:c>
@@ -2699,13 +2788,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D48" s="8">
-        <x:v>42552</x:v>
+        <x:v>44089</x:v>
       </x:c>
       <x:c r="E48" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A49" s="9" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -2716,13 +2805,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D49" s="8">
-        <x:v>43647</x:v>
+        <x:v>41533</x:v>
       </x:c>
       <x:c r="E49" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A50" s="9" t="n">
         <x:v>3162</x:v>
       </x:c>
@@ -2732,8 +2821,8 @@
       <x:c r="C50" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D50" s="15">
-        <x:v>45173</x:v>
+      <x:c r="D50" s="8">
+        <x:v>44091</x:v>
       </x:c>
       <x:c r="E50" s="7" t="s">
         <x:v>7</x:v>
@@ -2806,8 +2895,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E50"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <x:selection activeCell="D50" sqref="D50"/>
+    <x:sheetView topLeftCell="A32" workbookViewId="0">
+      <x:selection activeCell="D36" sqref="D36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,19 +2909,19 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="13" t="s">
+      <x:c r="A1" s="12" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="13" t="s">
+      <x:c r="B1" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="13" t="s">
+      <x:c r="C1" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="14" t="s">
+      <x:c r="D1" s="13" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="13" t="s">
+      <x:c r="E1" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -3442,7 +3531,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D37" s="8">
-        <x:v>42555</x:v>
+        <x:v>44078</x:v>
       </x:c>
       <x:c r="E37" s="7" t="s">
         <x:v>7</x:v>
@@ -3459,7 +3548,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D38" s="8">
-        <x:v>42191</x:v>
+        <x:v>44079</x:v>
       </x:c>
       <x:c r="E38" s="7" t="s">
         <x:v>7</x:v>
@@ -3476,7 +3565,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D39" s="8">
-        <x:v>43322</x:v>
+        <x:v>44810</x:v>
       </x:c>
       <x:c r="E39" s="7" t="s">
         <x:v>7</x:v>
@@ -3493,7 +3582,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D40" s="8">
-        <x:v>42957</x:v>
+        <x:v>44081</x:v>
       </x:c>
       <x:c r="E40" s="7" t="s">
         <x:v>7</x:v>
@@ -3510,7 +3599,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D41" s="8">
-        <x:v>42597</x:v>
+        <x:v>41160</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
         <x:v>7</x:v>
@@ -3527,7 +3616,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D42" s="8">
-        <x:v>42596</x:v>
+        <x:v>44083</x:v>
       </x:c>
       <x:c r="E42" s="7" t="s">
         <x:v>7</x:v>
@@ -3544,7 +3633,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" s="8">
-        <x:v>42596</x:v>
+        <x:v>41892</x:v>
       </x:c>
       <x:c r="E43" s="7" t="s">
         <x:v>7</x:v>
@@ -3561,7 +3650,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D44" s="8">
-        <x:v>40360</x:v>
+        <x:v>44085</x:v>
       </x:c>
       <x:c r="E44" s="7" t="s">
         <x:v>7</x:v>
@@ -3578,7 +3667,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D45" s="8">
-        <x:v>40725</x:v>
+        <x:v>42625</x:v>
       </x:c>
       <x:c r="E45" s="7" t="s">
         <x:v>7</x:v>
@@ -3595,7 +3684,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="8">
-        <x:v>42186</x:v>
+        <x:v>44087</x:v>
       </x:c>
       <x:c r="E46" s="7" t="s">
         <x:v>7</x:v>
@@ -3603,16 +3692,16 @@
     </x:row>
     <x:row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A47" s="9" t="n">
-        <x:v>2678</x:v>
+        <x:v>3357</x:v>
       </x:c>
       <x:c r="B47" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C47" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D47" s="8">
-        <x:v>42552</x:v>
+        <x:v>43357</x:v>
       </x:c>
       <x:c r="E47" s="7" t="s">
         <x:v>7</x:v>
@@ -3629,7 +3718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D48" s="8">
-        <x:v>42552</x:v>
+        <x:v>44089</x:v>
       </x:c>
       <x:c r="E48" s="7" t="s">
         <x:v>7</x:v>
@@ -3646,7 +3735,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D49" s="8">
-        <x:v>42610</x:v>
+        <x:v>41533</x:v>
       </x:c>
       <x:c r="E49" s="7" t="s">
         <x:v>7</x:v>
@@ -3662,8 +3751,8 @@
       <x:c r="C50" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D50" s="15">
-        <x:v>45173</x:v>
+      <x:c r="D50" s="8">
+        <x:v>44091</x:v>
       </x:c>
       <x:c r="E50" s="7" t="s">
         <x:v>7</x:v>
@@ -3746,33 +3835,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="16" t="s">
-        <x:v>37</x:v>
+      <x:c r="A1" s="14" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3801,33 +3890,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="13" t="s">
-        <x:v>43</x:v>
+      <x:c r="A1" s="12" t="s">
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" customFormat="1" ht="19.9" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3856,33 +3945,33 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" customFormat="1" ht="19.15" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="13" t="s">
-        <x:v>49</x:v>
+      <x:c r="A1" s="12" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3928,97 +4017,175 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>3027</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>3022</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="n">
-        <x:v>3162</x:v>
+        <x:v>3827</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="n">
+        <x:v>2713</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>60</x:v>
+      <x:c r="F7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4060,22 +4227,22 @@
     </x:row>
     <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
-        <x:v>1940</x:v>
+        <x:v>2567</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="11">
-        <x:v>42611</x:v>
+        <x:v>44079</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4117,22 +4284,22 @@
     </x:row>
     <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="n">
-        <x:v>2727</x:v>
+        <x:v>2567</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="11">
-        <x:v>42611</x:v>
+        <x:v>44079</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
